--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_26.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_21_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>103949.6808339819</v>
+        <v>103270.424164019</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5600077.191480964</v>
+        <v>5600077.191480962</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736554</v>
+        <v>504792.0292736548</v>
       </c>
     </row>
     <row r="9">
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>62.65155393540857</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>217.1775485358851</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>237.6699315459147</v>
+        <v>237.6699315459142</v>
       </c>
       <c r="H11" t="n">
-        <v>149.5579236355863</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>45.77294412754748</v>
+        <v>45.77294412754694</v>
       </c>
       <c r="U11" t="n">
-        <v>78.6271526860472</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>159.949167203949</v>
+        <v>159.9491672039484</v>
       </c>
       <c r="W11" t="n">
-        <v>185.2492666819059</v>
+        <v>185.2492666819053</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>204.549524914652</v>
       </c>
       <c r="Y11" t="n">
-        <v>37.78457670339523</v>
+        <v>215.9461227108507</v>
       </c>
     </row>
     <row r="12">
@@ -1452,10 +1452,10 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1464,10 +1464,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>53.61173000869066</v>
       </c>
       <c r="T12" t="n">
         <v>185.4768923348651</v>
@@ -1506,16 +1506,16 @@
         <v>216.28827711433</v>
       </c>
       <c r="V12" t="n">
-        <v>148.8993480988631</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W12" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X12" t="n">
-        <v>22.27750408191426</v>
+        <v>22.27750408191372</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.93579892784786</v>
+        <v>16.93579892784732</v>
       </c>
     </row>
     <row r="13">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.059500838466931</v>
+        <v>8.059500838466391</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>60.00698065888225</v>
+        <v>75.14513408061585</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1570,31 +1570,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>33.12269904515131</v>
+        <v>33.12269904515077</v>
       </c>
       <c r="T13" t="n">
-        <v>56.01254780844246</v>
+        <v>56.01254780844192</v>
       </c>
       <c r="U13" t="n">
-        <v>110.643031871382</v>
+        <v>110.6430318713815</v>
       </c>
       <c r="V13" t="n">
-        <v>84.46763723809252</v>
+        <v>84.46763723809198</v>
       </c>
       <c r="W13" t="n">
-        <v>109.6345233087058</v>
+        <v>109.6345233087052</v>
       </c>
       <c r="X13" t="n">
-        <v>55.2796253045089</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y13" t="n">
-        <v>219.8148072196457</v>
+        <v>46.15449306057604</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>216.4427899637698</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4541069214515</v>
+        <v>18.61276061541694</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>212.3840688711762</v>
+        <v>236.3493646238617</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>237.6699315459142</v>
       </c>
       <c r="H14" t="n">
-        <v>149.5579236355862</v>
+        <v>149.5579236355857</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,19 +1658,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>45.77294412754739</v>
+        <v>45.77294412754694</v>
       </c>
       <c r="U14" t="n">
-        <v>78.62715268604711</v>
+        <v>78.62715268604666</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>159.9491672039484</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>185.2492666819053</v>
       </c>
       <c r="X14" t="n">
-        <v>204.5495249146524</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,13 +1683,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S15" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>11.81657817579593</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U15" t="n">
-        <v>179.7648362866166</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V15" t="n">
-        <v>52.45135216708019</v>
+        <v>52.45135216707973</v>
       </c>
       <c r="W15" t="n">
-        <v>238.9027100790231</v>
+        <v>231.9424492465601</v>
       </c>
       <c r="X15" t="n">
-        <v>195.9378182409833</v>
+        <v>22.27750408191372</v>
       </c>
       <c r="Y15" t="n">
-        <v>16.93579892784777</v>
+        <v>16.93579892784732</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.059500838466846</v>
+        <v>28.04076041224237</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>33.12269904515123</v>
+        <v>33.12269904515077</v>
       </c>
       <c r="T16" t="n">
-        <v>56.01254780844238</v>
+        <v>56.01254780844192</v>
       </c>
       <c r="U16" t="n">
-        <v>110.6430318713819</v>
+        <v>110.6430318713815</v>
       </c>
       <c r="V16" t="n">
-        <v>84.46763723809244</v>
+        <v>84.46763723809198</v>
       </c>
       <c r="W16" t="n">
-        <v>109.6345233087057</v>
+        <v>109.6345233087052</v>
       </c>
       <c r="X16" t="n">
-        <v>55.27962530450881</v>
+        <v>55.27962530450836</v>
       </c>
       <c r="Y16" t="n">
-        <v>88.84021836893787</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115.443458456172</v>
+        <v>115.4434584561714</v>
       </c>
       <c r="C17" t="n">
-        <v>103.4547754138537</v>
+        <v>103.4547754138532</v>
       </c>
       <c r="D17" t="n">
-        <v>94.43607945838161</v>
+        <v>94.43607945838113</v>
       </c>
       <c r="E17" t="n">
-        <v>116.1782170282872</v>
+        <v>116.1782170282867</v>
       </c>
       <c r="F17" t="n">
-        <v>135.3500331162644</v>
+        <v>135.3500331162638</v>
       </c>
       <c r="G17" t="n">
-        <v>136.6706000383169</v>
+        <v>136.6706000383163</v>
       </c>
       <c r="H17" t="n">
-        <v>48.55859212798838</v>
+        <v>48.55859212798781</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>58.9498356963511</v>
+        <v>58.94983569635053</v>
       </c>
       <c r="W17" t="n">
-        <v>84.24993517430801</v>
+        <v>84.24993517430744</v>
       </c>
       <c r="X17" t="n">
-        <v>103.5501934070546</v>
+        <v>103.5501934070541</v>
       </c>
       <c r="Y17" t="n">
-        <v>114.9467912032534</v>
+        <v>114.9467912032533</v>
       </c>
     </row>
     <row r="18">
@@ -1920,25 +1920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>124.3347149240399</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,28 +1968,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>159.9524183446744</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1999,13 +1999,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>40.02572108511011</v>
+        <v>4.745157358915705</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>15.13815342172978</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>135.6689122231617</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U19" t="n">
-        <v>262.179620499878</v>
+        <v>9.643700363783584</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>8.635191801107339</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>115.443458456172</v>
+        <v>115.4434584561714</v>
       </c>
       <c r="C20" t="n">
-        <v>103.4547754138537</v>
+        <v>103.4547754138532</v>
       </c>
       <c r="D20" t="n">
-        <v>94.4360794583817</v>
+        <v>94.43607945838113</v>
       </c>
       <c r="E20" t="n">
-        <v>116.1782170282872</v>
+        <v>116.1782170282867</v>
       </c>
       <c r="F20" t="n">
-        <v>135.3500331162644</v>
+        <v>135.3500331162638</v>
       </c>
       <c r="G20" t="n">
-        <v>136.6706000383169</v>
+        <v>136.6706000383163</v>
       </c>
       <c r="H20" t="n">
-        <v>48.55859212798839</v>
+        <v>48.55859212798782</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>58.9498356963511</v>
+        <v>58.94983569635053</v>
       </c>
       <c r="W20" t="n">
-        <v>84.24993517430833</v>
+        <v>84.24993517430744</v>
       </c>
       <c r="X20" t="n">
-        <v>103.5501934070546</v>
+        <v>103.5501934070541</v>
       </c>
       <c r="Y20" t="n">
-        <v>114.9467912032534</v>
+        <v>114.9467912032528</v>
       </c>
     </row>
     <row r="21">
@@ -2157,19 +2157,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>8.174077256389248</v>
       </c>
       <c r="G21" t="n">
         <v>127.1133910541359</v>
@@ -2205,28 +2205,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>11.66225836558074</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2245,10 +2245,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2260,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>40.02572108511011</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2281,31 +2281,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>206.7830132042204</v>
+        <v>55.47300589938134</v>
       </c>
       <c r="T22" t="n">
-        <v>170.5089543182802</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U22" t="n">
-        <v>9.643700363784152</v>
+        <v>9.643700363783584</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>8.635191801107908</v>
+        <v>8.635191801107339</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>115.443458456172</v>
+        <v>115.4434584561714</v>
       </c>
       <c r="C23" t="n">
-        <v>103.4547754138537</v>
+        <v>103.4547754138532</v>
       </c>
       <c r="D23" t="n">
-        <v>94.4360794583817</v>
+        <v>94.43607945838113</v>
       </c>
       <c r="E23" t="n">
-        <v>116.1782170282872</v>
+        <v>116.1782170282867</v>
       </c>
       <c r="F23" t="n">
-        <v>135.3500331162644</v>
+        <v>135.3500331162638</v>
       </c>
       <c r="G23" t="n">
-        <v>136.6706000383169</v>
+        <v>136.6706000383163</v>
       </c>
       <c r="H23" t="n">
-        <v>48.55859212798839</v>
+        <v>48.55859212798782</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>58.9498356963511</v>
+        <v>58.94983569635053</v>
       </c>
       <c r="W23" t="n">
-        <v>84.24993517430801</v>
+        <v>84.24993517430744</v>
       </c>
       <c r="X23" t="n">
-        <v>103.5501934070546</v>
+        <v>103.5501934070541</v>
       </c>
       <c r="Y23" t="n">
-        <v>114.9467912032534</v>
+        <v>114.9467912032528</v>
       </c>
     </row>
     <row r="24">
@@ -2394,25 +2394,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>127.1133910541359</v>
+        <v>86.04869954822321</v>
       </c>
       <c r="H24" t="n">
-        <v>41.00324577402107</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2448,22 +2448,22 @@
         <v>145.1823065335695</v>
       </c>
       <c r="T24" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="25">
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>206.7830132042204</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U25" t="n">
-        <v>284.3033460304511</v>
+        <v>9.643700363783584</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>36.10365239958546</v>
       </c>
       <c r="W25" t="n">
-        <v>245.9549940586063</v>
+        <v>8.635191801107339</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.5711157271347</v>
+        <v>212.5711157271351</v>
       </c>
       <c r="C35" t="n">
-        <v>200.5824326848165</v>
+        <v>200.5824326848168</v>
       </c>
       <c r="D35" t="n">
-        <v>191.5637367293444</v>
+        <v>191.5637367293448</v>
       </c>
       <c r="E35" t="n">
-        <v>213.30587429925</v>
+        <v>213.3058742992503</v>
       </c>
       <c r="F35" t="n">
-        <v>232.4776903872271</v>
+        <v>232.4776903872275</v>
       </c>
       <c r="G35" t="n">
-        <v>233.7982573092796</v>
+        <v>233.79825730928</v>
       </c>
       <c r="H35" t="n">
-        <v>145.6862493989511</v>
+        <v>145.6862493989515</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>41.90126989091235</v>
+        <v>41.90126989091272</v>
       </c>
       <c r="U35" t="n">
-        <v>74.75547844941207</v>
+        <v>74.75547844941244</v>
       </c>
       <c r="V35" t="n">
-        <v>156.0774929673138</v>
+        <v>156.0774929673142</v>
       </c>
       <c r="W35" t="n">
-        <v>181.3775924452707</v>
+        <v>181.3775924452711</v>
       </c>
       <c r="X35" t="n">
-        <v>200.6778506780174</v>
+        <v>200.6778506780177</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.0744484742161</v>
+        <v>212.0744484742165</v>
       </c>
     </row>
     <row r="36">
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>145.1823065335695</v>
+        <v>29.97196401942528</v>
       </c>
       <c r="T36" t="n">
-        <v>31.43396330353697</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U36" t="n">
         <v>216.28827711433</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.187826601831802</v>
+        <v>4.187826601832171</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3466,31 +3466,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>29.25102480851618</v>
+        <v>29.25102480851655</v>
       </c>
       <c r="T37" t="n">
-        <v>149.8258477015778</v>
+        <v>52.1408735718077</v>
       </c>
       <c r="U37" t="n">
-        <v>106.7713576347469</v>
+        <v>106.7713576347473</v>
       </c>
       <c r="V37" t="n">
-        <v>80.59596300145739</v>
+        <v>80.59596300145776</v>
       </c>
       <c r="W37" t="n">
-        <v>105.7628490720707</v>
+        <v>105.762849072071</v>
       </c>
       <c r="X37" t="n">
-        <v>51.40795106787377</v>
+        <v>51.40795106787414</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.28281882394145</v>
+        <v>155.105946375439</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.5711157271346</v>
+        <v>212.5711157271351</v>
       </c>
       <c r="C38" t="n">
-        <v>200.5824326848164</v>
+        <v>200.5824326848168</v>
       </c>
       <c r="D38" t="n">
-        <v>191.5637367293443</v>
+        <v>191.5637367293448</v>
       </c>
       <c r="E38" t="n">
-        <v>213.3058742992499</v>
+        <v>213.3058742992503</v>
       </c>
       <c r="F38" t="n">
-        <v>232.477690387227</v>
+        <v>232.4776903872275</v>
       </c>
       <c r="G38" t="n">
-        <v>233.7982573092795</v>
+        <v>233.79825730928</v>
       </c>
       <c r="H38" t="n">
-        <v>145.686249398951</v>
+        <v>145.6862493989515</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>41.90126989091223</v>
+        <v>41.90126989091269</v>
       </c>
       <c r="U38" t="n">
-        <v>74.75547844941195</v>
+        <v>74.75547844941241</v>
       </c>
       <c r="V38" t="n">
-        <v>156.0774929673137</v>
+        <v>156.0774929673142</v>
       </c>
       <c r="W38" t="n">
-        <v>181.3775924452706</v>
+        <v>181.3775924452711</v>
       </c>
       <c r="X38" t="n">
-        <v>200.6778506780173</v>
+        <v>200.6778506780177</v>
       </c>
       <c r="Y38" t="n">
-        <v>212.074448474216</v>
+        <v>212.0744484742165</v>
       </c>
     </row>
     <row r="39">
@@ -3585,7 +3585,7 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>145.5577298436975</v>
@@ -3594,13 +3594,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>125.2543942702142</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y39" t="n">
-        <v>190.5961130869169</v>
+        <v>174.003434695284</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4.187826601831688</v>
+        <v>4.187826601832143</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3703,31 +3703,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>29.25102480851607</v>
+        <v>131.4978785455721</v>
       </c>
       <c r="T40" t="n">
-        <v>52.14087357180722</v>
+        <v>229.6728619675116</v>
       </c>
       <c r="U40" t="n">
-        <v>106.7713576347468</v>
+        <v>106.7713576347472</v>
       </c>
       <c r="V40" t="n">
-        <v>80.59596300145728</v>
+        <v>80.59596300145773</v>
       </c>
       <c r="W40" t="n">
-        <v>105.7628490720705</v>
+        <v>105.762849072071</v>
       </c>
       <c r="X40" t="n">
-        <v>51.40795106787365</v>
+        <v>51.40795106787411</v>
       </c>
       <c r="Y40" t="n">
-        <v>156.4345834386802</v>
+        <v>42.2828188239418</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>212.5711157271347</v>
+        <v>212.571115727135</v>
       </c>
       <c r="C41" t="n">
-        <v>200.5824326848164</v>
+        <v>200.5824326848168</v>
       </c>
       <c r="D41" t="n">
-        <v>191.5637367293444</v>
+        <v>191.5637367293447</v>
       </c>
       <c r="E41" t="n">
-        <v>213.3058742992499</v>
+        <v>213.3058742992503</v>
       </c>
       <c r="F41" t="n">
-        <v>232.4776903872271</v>
+        <v>232.4776903872274</v>
       </c>
       <c r="G41" t="n">
-        <v>233.7982573092796</v>
+        <v>233.7982573092799</v>
       </c>
       <c r="H41" t="n">
-        <v>145.6862493989511</v>
+        <v>145.6862493989514</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>41.90126989091229</v>
+        <v>41.90126989091263</v>
       </c>
       <c r="U41" t="n">
-        <v>74.75547844941201</v>
+        <v>74.75547844941235</v>
       </c>
       <c r="V41" t="n">
-        <v>156.0774929673138</v>
+        <v>156.0774929673141</v>
       </c>
       <c r="W41" t="n">
-        <v>181.3775924452707</v>
+        <v>181.377592445271</v>
       </c>
       <c r="X41" t="n">
-        <v>200.6778506780173</v>
+        <v>200.6778506780176</v>
       </c>
       <c r="Y41" t="n">
-        <v>212.0744484742161</v>
+        <v>212.0744484742164</v>
       </c>
     </row>
     <row r="42">
@@ -3831,13 +3831,13 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>127.1133910541359</v>
       </c>
       <c r="H42" t="n">
         <v>95.77238994002833</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48200433018585</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>145.1823065335695</v>
@@ -3873,7 +3873,7 @@
         <v>185.4768923348651</v>
       </c>
       <c r="U42" t="n">
-        <v>216.28827711433</v>
+        <v>101.0779346001857</v>
       </c>
       <c r="V42" t="n">
         <v>226.1116663261494</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.187826601831745</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
-        <v>102.2468537370583</v>
+        <v>87.10870031532623</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3940,31 +3940,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>29.25102480851613</v>
+        <v>29.25102480851647</v>
       </c>
       <c r="T43" t="n">
-        <v>52.14087357180728</v>
+        <v>52.14087357180762</v>
       </c>
       <c r="U43" t="n">
-        <v>106.7713576347468</v>
+        <v>106.7713576347472</v>
       </c>
       <c r="V43" t="n">
-        <v>80.59596300145733</v>
+        <v>80.59596300145768</v>
       </c>
       <c r="W43" t="n">
-        <v>105.7628490720706</v>
+        <v>105.7628490720709</v>
       </c>
       <c r="X43" t="n">
-        <v>51.40795106787371</v>
+        <v>51.40795106787405</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>42.28281882394174</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>212.5711157271348</v>
+        <v>212.5711157271351</v>
       </c>
       <c r="C44" t="n">
-        <v>200.5824326848165</v>
+        <v>200.5824326848168</v>
       </c>
       <c r="D44" t="n">
-        <v>191.5637367293445</v>
+        <v>191.5637367293448</v>
       </c>
       <c r="E44" t="n">
-        <v>213.30587429925</v>
+        <v>213.3058742992503</v>
       </c>
       <c r="F44" t="n">
-        <v>232.4776903872272</v>
+        <v>232.4776903872275</v>
       </c>
       <c r="G44" t="n">
-        <v>233.7982573092796</v>
+        <v>233.79825730928</v>
       </c>
       <c r="H44" t="n">
-        <v>145.6862493989512</v>
+        <v>145.6862493989515</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>41.90126989091237</v>
+        <v>41.90126989091272</v>
       </c>
       <c r="U44" t="n">
-        <v>74.7554784494121</v>
+        <v>74.75547844941244</v>
       </c>
       <c r="V44" t="n">
-        <v>156.0774929673139</v>
+        <v>156.0774929673142</v>
       </c>
       <c r="W44" t="n">
-        <v>181.3775924452708</v>
+        <v>181.3775924452711</v>
       </c>
       <c r="X44" t="n">
-        <v>200.6778506780174</v>
+        <v>200.6778506780177</v>
       </c>
       <c r="Y44" t="n">
-        <v>212.0744484742162</v>
+        <v>212.0744484742165</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H45" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,13 +4101,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>38.832586517179</v>
+        <v>36.97358973326276</v>
       </c>
       <c r="S45" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T45" t="n">
-        <v>31.43396330353697</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U45" t="n">
         <v>216.28827711433</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4.18782660183183</v>
+        <v>4.187826601832171</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>145.2829132301984</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>134.4959289025635</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>29.25102480851621</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T46" t="n">
-        <v>52.14087357180736</v>
+        <v>154.387727308863</v>
       </c>
       <c r="U46" t="n">
-        <v>106.7713576347469</v>
+        <v>106.7713576347473</v>
       </c>
       <c r="V46" t="n">
-        <v>80.59596300145742</v>
+        <v>80.59596300145776</v>
       </c>
       <c r="W46" t="n">
-        <v>105.7628490720707</v>
+        <v>105.762849072071</v>
       </c>
       <c r="X46" t="n">
-        <v>51.4079510678738</v>
+        <v>51.40795106787414</v>
       </c>
       <c r="Y46" t="n">
-        <v>42.28281882394148</v>
+        <v>42.28281882394182</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>633.4292577462822</v>
+        <v>326.2737847805614</v>
       </c>
       <c r="C11" t="n">
-        <v>633.4292577462822</v>
+        <v>262.9893868660075</v>
       </c>
       <c r="D11" t="n">
-        <v>633.4292577462822</v>
+        <v>262.9893868660075</v>
       </c>
       <c r="E11" t="n">
-        <v>414.0579965989235</v>
+        <v>262.9893868660075</v>
       </c>
       <c r="F11" t="n">
-        <v>414.0579965989235</v>
+        <v>262.9893868660075</v>
       </c>
       <c r="G11" t="n">
-        <v>173.9873586737571</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="H11" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I11" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J11" t="n">
-        <v>146.3995003278775</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K11" t="n">
-        <v>146.3995003278775</v>
+        <v>306.5382670837565</v>
       </c>
       <c r="L11" t="n">
-        <v>146.3995003278775</v>
+        <v>590.1577852266713</v>
       </c>
       <c r="M11" t="n">
-        <v>430.0190184707935</v>
+        <v>590.1577852266713</v>
       </c>
       <c r="N11" t="n">
-        <v>430.0190184707935</v>
+        <v>590.1577852266713</v>
       </c>
       <c r="O11" t="n">
-        <v>702.3825108831801</v>
+        <v>862.3179288991653</v>
       </c>
       <c r="P11" t="n">
-        <v>986.0020290260961</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="Q11" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R11" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="S11" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="T11" t="n">
-        <v>1099.702149943552</v>
+        <v>1099.702149943548</v>
       </c>
       <c r="U11" t="n">
-        <v>1020.28078359401</v>
+        <v>1099.702149943548</v>
       </c>
       <c r="V11" t="n">
-        <v>858.7159682364854</v>
+        <v>938.1373345860241</v>
       </c>
       <c r="W11" t="n">
-        <v>671.5954968406209</v>
+        <v>751.0168631901601</v>
       </c>
       <c r="X11" t="n">
-        <v>671.5954968406209</v>
+        <v>544.4011814581884</v>
       </c>
       <c r="Y11" t="n">
-        <v>633.4292577462822</v>
+        <v>326.2737847805614</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>308.7853958937584</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="C12" t="n">
-        <v>308.7853958937584</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="D12" t="n">
-        <v>169.9467588839705</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="E12" t="n">
-        <v>22.9187489408417</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="F12" t="n">
-        <v>22.9187489408417</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="G12" t="n">
-        <v>22.9187489408417</v>
+        <v>176.6398926250908</v>
       </c>
       <c r="H12" t="n">
-        <v>22.9187489408417</v>
+        <v>79.90010480688034</v>
       </c>
       <c r="I12" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J12" t="n">
-        <v>22.9187489408417</v>
+        <v>113.8353453427566</v>
       </c>
       <c r="K12" t="n">
-        <v>304.8163121699842</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="L12" t="n">
-        <v>304.8163121699842</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="M12" t="n">
-        <v>304.8163121699842</v>
+        <v>395.7329085718991</v>
       </c>
       <c r="N12" t="n">
-        <v>379.4988091503249</v>
+        <v>663.1183272932371</v>
       </c>
       <c r="O12" t="n">
-        <v>663.1183272932409</v>
+        <v>663.1183272932371</v>
       </c>
       <c r="P12" t="n">
-        <v>946.7378454361569</v>
+        <v>946.7378454361519</v>
       </c>
       <c r="Q12" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R12" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="S12" t="n">
-        <v>1145.937447042085</v>
+        <v>1091.784184407039</v>
       </c>
       <c r="T12" t="n">
-        <v>958.5870507442415</v>
+        <v>904.4337881091953</v>
       </c>
       <c r="U12" t="n">
-        <v>740.1140435580496</v>
+        <v>685.9607809230034</v>
       </c>
       <c r="V12" t="n">
-        <v>589.710661640006</v>
+        <v>457.5651583713374</v>
       </c>
       <c r="W12" t="n">
-        <v>348.3947928733161</v>
+        <v>216.2492896046474</v>
       </c>
       <c r="X12" t="n">
-        <v>325.8922634976451</v>
+        <v>193.746760228977</v>
       </c>
       <c r="Y12" t="n">
-        <v>308.7853958937584</v>
+        <v>176.6398926250908</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.53186071749045</v>
+        <v>98.82292477984751</v>
       </c>
       <c r="C13" t="n">
-        <v>83.53186071749045</v>
+        <v>98.82292477984751</v>
       </c>
       <c r="D13" t="n">
-        <v>83.53186071749045</v>
+        <v>98.82292477984751</v>
       </c>
       <c r="E13" t="n">
-        <v>83.53186071749045</v>
+        <v>98.82292477984751</v>
       </c>
       <c r="F13" t="n">
-        <v>83.53186071749045</v>
+        <v>98.82292477984751</v>
       </c>
       <c r="G13" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="H13" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I13" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J13" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K13" t="n">
-        <v>88.1346383419359</v>
+        <v>88.13463834193578</v>
       </c>
       <c r="L13" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344954</v>
       </c>
       <c r="M13" t="n">
-        <v>389.8383804074948</v>
+        <v>389.8383804074947</v>
       </c>
       <c r="N13" t="n">
-        <v>549.897637179242</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O13" t="n">
-        <v>686.8197138278657</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P13" t="n">
-        <v>782.6960284509504</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q13" t="n">
-        <v>767.4049643885971</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="R13" t="n">
-        <v>767.4049643885971</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="S13" t="n">
-        <v>733.947692625818</v>
+        <v>749.2387566881717</v>
       </c>
       <c r="T13" t="n">
-        <v>677.3693615061792</v>
+        <v>692.6604255685335</v>
       </c>
       <c r="U13" t="n">
-        <v>565.608723252258</v>
+        <v>580.8997873146128</v>
       </c>
       <c r="V13" t="n">
-        <v>480.287877557215</v>
+        <v>495.5789416195704</v>
       </c>
       <c r="W13" t="n">
-        <v>369.5459348211485</v>
+        <v>384.8369988835045</v>
       </c>
       <c r="X13" t="n">
-        <v>313.7079294630587</v>
+        <v>153.5845347788803</v>
       </c>
       <c r="Y13" t="n">
-        <v>91.67277065533582</v>
+        <v>106.9638347176924</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>595.036021090553</v>
+        <v>671.5954968406179</v>
       </c>
       <c r="C14" t="n">
-        <v>388.5167211698949</v>
+        <v>652.7947285422169</v>
       </c>
       <c r="D14" t="n">
-        <v>388.5167211698949</v>
+        <v>652.7947285422169</v>
       </c>
       <c r="E14" t="n">
-        <v>388.5167211698949</v>
+        <v>652.7947285422169</v>
       </c>
       <c r="F14" t="n">
-        <v>173.987358673757</v>
+        <v>414.0579965989223</v>
       </c>
       <c r="G14" t="n">
-        <v>173.987358673757</v>
+        <v>173.9873586737565</v>
       </c>
       <c r="H14" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I14" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J14" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="K14" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="L14" t="n">
-        <v>146.3995003278775</v>
+        <v>295.0788926133357</v>
       </c>
       <c r="M14" t="n">
-        <v>146.3995003278775</v>
+        <v>578.6984107562505</v>
       </c>
       <c r="N14" t="n">
-        <v>430.0190184707935</v>
+        <v>862.3179288991653</v>
       </c>
       <c r="O14" t="n">
-        <v>702.3825108831801</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="P14" t="n">
-        <v>986.0020290260961</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="Q14" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R14" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="S14" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="T14" t="n">
-        <v>1099.702149943552</v>
+        <v>1099.702149943548</v>
       </c>
       <c r="U14" t="n">
-        <v>1020.28078359401</v>
+        <v>1020.280783594006</v>
       </c>
       <c r="V14" t="n">
-        <v>1020.28078359401</v>
+        <v>858.715968236482</v>
       </c>
       <c r="W14" t="n">
-        <v>1020.28078359401</v>
+        <v>671.5954968406179</v>
       </c>
       <c r="X14" t="n">
-        <v>813.6651018620377</v>
+        <v>671.5954968406179</v>
       </c>
       <c r="Y14" t="n">
-        <v>813.6651018620377</v>
+        <v>671.5954968406179</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>296.4511840007553</v>
+        <v>214.593902857006</v>
       </c>
       <c r="C15" t="n">
-        <v>296.4511840007553</v>
+        <v>214.593902857006</v>
       </c>
       <c r="D15" t="n">
-        <v>157.6125469909674</v>
+        <v>214.593902857006</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6125469909674</v>
+        <v>214.593902857006</v>
       </c>
       <c r="F15" t="n">
-        <v>22.9187489408417</v>
+        <v>79.90010480688034</v>
       </c>
       <c r="G15" t="n">
-        <v>22.9187489408417</v>
+        <v>79.90010480688034</v>
       </c>
       <c r="H15" t="n">
-        <v>22.9187489408417</v>
+        <v>79.90010480688034</v>
       </c>
       <c r="I15" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J15" t="n">
-        <v>113.8353453427567</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K15" t="n">
-        <v>395.7329085718992</v>
+        <v>304.8163121699841</v>
       </c>
       <c r="L15" t="n">
-        <v>663.1183272932409</v>
+        <v>304.8163121699841</v>
       </c>
       <c r="M15" t="n">
-        <v>946.7378454361569</v>
+        <v>304.8163121699841</v>
       </c>
       <c r="N15" t="n">
-        <v>946.7378454361569</v>
+        <v>379.4988091503223</v>
       </c>
       <c r="O15" t="n">
-        <v>946.7378454361569</v>
+        <v>663.1183272932371</v>
       </c>
       <c r="P15" t="n">
-        <v>946.7378454361569</v>
+        <v>946.7378454361519</v>
       </c>
       <c r="Q15" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R15" t="n">
-        <v>1145.937447042085</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="S15" t="n">
-        <v>999.2886525637321</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="T15" t="n">
-        <v>987.352715012423</v>
+        <v>919.3622158783991</v>
       </c>
       <c r="U15" t="n">
-        <v>805.7720722986688</v>
+        <v>700.8892086922071</v>
       </c>
       <c r="V15" t="n">
-        <v>752.7909084935374</v>
+        <v>647.9080448870761</v>
       </c>
       <c r="W15" t="n">
-        <v>511.4750397268474</v>
+        <v>413.6227426178235</v>
       </c>
       <c r="X15" t="n">
-        <v>313.5580516046419</v>
+        <v>391.1202132421531</v>
       </c>
       <c r="Y15" t="n">
-        <v>296.4511840007553</v>
+        <v>374.0133456382669</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>215.8294252131556</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="C16" t="n">
-        <v>215.8294252131556</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="D16" t="n">
-        <v>215.8294252131556</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="E16" t="n">
-        <v>215.8294252131556</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="F16" t="n">
-        <v>63.34877023893272</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="G16" t="n">
-        <v>63.34877023893272</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="H16" t="n">
-        <v>63.34877023893272</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="I16" t="n">
-        <v>63.34877023893272</v>
+        <v>63.34877023893262</v>
       </c>
       <c r="J16" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K16" t="n">
-        <v>88.1346383419359</v>
+        <v>88.13463834193578</v>
       </c>
       <c r="L16" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344954</v>
       </c>
       <c r="M16" t="n">
-        <v>389.8383804074948</v>
+        <v>389.8383804074947</v>
       </c>
       <c r="N16" t="n">
-        <v>549.897637179242</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O16" t="n">
-        <v>686.8197138278657</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P16" t="n">
-        <v>782.6960284509504</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q16" t="n">
-        <v>767.4049643885971</v>
+        <v>767.404964388597</v>
       </c>
       <c r="R16" t="n">
-        <v>767.4049643885971</v>
+        <v>767.404964388597</v>
       </c>
       <c r="S16" t="n">
-        <v>733.9476926258181</v>
+        <v>733.9476926258185</v>
       </c>
       <c r="T16" t="n">
-        <v>677.3693615061794</v>
+        <v>677.3693615061802</v>
       </c>
       <c r="U16" t="n">
-        <v>565.6087232522583</v>
+        <v>565.6087232522596</v>
       </c>
       <c r="V16" t="n">
-        <v>480.2878775572154</v>
+        <v>480.2878775572171</v>
       </c>
       <c r="W16" t="n">
-        <v>369.5459348211491</v>
+        <v>369.5459348211513</v>
       </c>
       <c r="X16" t="n">
-        <v>313.7079294630594</v>
+        <v>313.707929463062</v>
       </c>
       <c r="Y16" t="n">
-        <v>223.9703351510009</v>
+        <v>91.67277065533906</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>663.9776349843689</v>
+        <v>663.9776349843663</v>
       </c>
       <c r="C17" t="n">
-        <v>559.4778618390621</v>
+        <v>559.4778618390601</v>
       </c>
       <c r="D17" t="n">
-        <v>464.0878825881718</v>
+        <v>464.0878825881701</v>
       </c>
       <c r="E17" t="n">
-        <v>346.7361482161645</v>
+        <v>346.7361482161634</v>
       </c>
       <c r="F17" t="n">
-        <v>210.0189430482207</v>
+        <v>210.0189430482201</v>
       </c>
       <c r="G17" t="n">
-        <v>71.96783189840573</v>
+        <v>71.96783189840505</v>
       </c>
       <c r="H17" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I17" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J17" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="K17" t="n">
-        <v>146.3995003278775</v>
+        <v>430.0190184707923</v>
       </c>
       <c r="L17" t="n">
-        <v>295.078892613337</v>
+        <v>430.0190184707923</v>
       </c>
       <c r="M17" t="n">
-        <v>578.698410756253</v>
+        <v>430.0190184707923</v>
       </c>
       <c r="N17" t="n">
-        <v>862.317928899169</v>
+        <v>702.3825108831763</v>
       </c>
       <c r="O17" t="n">
-        <v>1145.937447042085</v>
+        <v>986.0020290260911</v>
       </c>
       <c r="P17" t="n">
-        <v>1145.937447042085</v>
+        <v>986.0020290260911</v>
       </c>
       <c r="Q17" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R17" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="S17" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="T17" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="U17" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="V17" t="n">
-        <v>1086.392158459912</v>
+        <v>1086.392158459908</v>
       </c>
       <c r="W17" t="n">
-        <v>1001.291213839399</v>
+        <v>1001.291213839395</v>
       </c>
       <c r="X17" t="n">
-        <v>896.6950588827785</v>
+        <v>896.6950588827751</v>
       </c>
       <c r="Y17" t="n">
-        <v>780.5871889805023</v>
+        <v>780.587188980499</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>596.0796897881976</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="C18" t="n">
-        <v>434.3760170291523</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="D18" t="n">
-        <v>295.5373800193644</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="E18" t="n">
-        <v>148.5093700762356</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="F18" t="n">
-        <v>22.9187489408417</v>
+        <v>248.0559014601994</v>
       </c>
       <c r="G18" t="n">
-        <v>22.9187489408417</v>
+        <v>119.6585367590521</v>
       </c>
       <c r="H18" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I18" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J18" t="n">
-        <v>113.8353453427567</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K18" t="n">
-        <v>395.7329085718992</v>
+        <v>95.87929100740746</v>
       </c>
       <c r="L18" t="n">
-        <v>663.1183272932409</v>
+        <v>95.87929100740746</v>
       </c>
       <c r="M18" t="n">
-        <v>946.7378454361569</v>
+        <v>95.87929100740746</v>
       </c>
       <c r="N18" t="n">
-        <v>946.7378454361569</v>
+        <v>379.4988091503223</v>
       </c>
       <c r="O18" t="n">
-        <v>946.7378454361569</v>
+        <v>663.1183272932371</v>
       </c>
       <c r="P18" t="n">
-        <v>946.7378454361569</v>
+        <v>946.7378454361519</v>
       </c>
       <c r="Q18" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R18" t="n">
-        <v>1145.937447042085</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="S18" t="n">
-        <v>1145.937447042085</v>
+        <v>960.0638176978896</v>
       </c>
       <c r="T18" t="n">
-        <v>1145.937447042085</v>
+        <v>772.7134214000461</v>
       </c>
       <c r="U18" t="n">
-        <v>1145.937447042085</v>
+        <v>772.7134214000461</v>
       </c>
       <c r="V18" t="n">
-        <v>1145.937447042085</v>
+        <v>544.31779884838</v>
       </c>
       <c r="W18" t="n">
-        <v>1145.937447042085</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="X18" t="n">
-        <v>948.0204589198796</v>
+        <v>382.7496995103251</v>
       </c>
       <c r="Y18" t="n">
-        <v>755.4991325694584</v>
+        <v>382.7496995103251</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.42066341117</v>
+        <v>196.3539731228392</v>
       </c>
       <c r="C19" t="n">
-        <v>216.42066341117</v>
+        <v>196.3539731228392</v>
       </c>
       <c r="D19" t="n">
-        <v>63.34877023893272</v>
+        <v>196.3539731228392</v>
       </c>
       <c r="E19" t="n">
-        <v>63.34877023893272</v>
+        <v>196.3539731228392</v>
       </c>
       <c r="F19" t="n">
-        <v>63.34877023893272</v>
+        <v>196.3539731228392</v>
       </c>
       <c r="G19" t="n">
-        <v>63.34877023893272</v>
+        <v>27.7118371821706</v>
       </c>
       <c r="H19" t="n">
-        <v>63.34877023893272</v>
+        <v>27.7118371821706</v>
       </c>
       <c r="I19" t="n">
-        <v>63.34877023893272</v>
+        <v>27.7118371821706</v>
       </c>
       <c r="J19" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K19" t="n">
-        <v>88.1346383419359</v>
+        <v>88.13463834193578</v>
       </c>
       <c r="L19" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344954</v>
       </c>
       <c r="M19" t="n">
-        <v>389.8383804074948</v>
+        <v>389.8383804074947</v>
       </c>
       <c r="N19" t="n">
-        <v>549.897637179242</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O19" t="n">
-        <v>686.8197138278657</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P19" t="n">
-        <v>782.6960284509504</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q19" t="n">
-        <v>767.4049643885971</v>
+        <v>767.404964388597</v>
       </c>
       <c r="R19" t="n">
-        <v>767.4049643885971</v>
+        <v>630.3656591126761</v>
       </c>
       <c r="S19" t="n">
-        <v>767.4049643885971</v>
+        <v>630.3656591126761</v>
       </c>
       <c r="T19" t="n">
-        <v>767.4049643885971</v>
+        <v>398.3728692465028</v>
       </c>
       <c r="U19" t="n">
-        <v>502.5770648937709</v>
+        <v>388.6317577679335</v>
       </c>
       <c r="V19" t="n">
-        <v>502.5770648937709</v>
+        <v>388.6317577679335</v>
       </c>
       <c r="W19" t="n">
-        <v>216.42066341117</v>
+        <v>379.909341807219</v>
       </c>
       <c r="X19" t="n">
-        <v>216.42066341117</v>
+        <v>379.909341807219</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.42066341117</v>
+        <v>379.909341807219</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>663.9776349843687</v>
+        <v>663.9776349843667</v>
       </c>
       <c r="C20" t="n">
-        <v>559.4778618390619</v>
+        <v>559.4778618390604</v>
       </c>
       <c r="D20" t="n">
-        <v>464.0878825881714</v>
+        <v>464.0878825881704</v>
       </c>
       <c r="E20" t="n">
-        <v>346.7361482161641</v>
+        <v>346.7361482161637</v>
       </c>
       <c r="F20" t="n">
-        <v>210.0189430482203</v>
+        <v>210.0189430482205</v>
       </c>
       <c r="G20" t="n">
-        <v>71.96783189840573</v>
+        <v>71.96783189840505</v>
       </c>
       <c r="H20" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I20" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J20" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="K20" t="n">
-        <v>430.0190184707935</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="L20" t="n">
-        <v>702.3825108831801</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="M20" t="n">
-        <v>986.0020290260961</v>
+        <v>430.0190184707923</v>
       </c>
       <c r="N20" t="n">
-        <v>986.0020290260961</v>
+        <v>713.6385366137072</v>
       </c>
       <c r="O20" t="n">
-        <v>986.0020290260961</v>
+        <v>986.0020290260911</v>
       </c>
       <c r="P20" t="n">
-        <v>986.0020290260961</v>
+        <v>986.0020290260911</v>
       </c>
       <c r="Q20" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R20" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="S20" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="T20" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="U20" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="V20" t="n">
-        <v>1086.392158459912</v>
+        <v>1086.392158459908</v>
       </c>
       <c r="W20" t="n">
-        <v>1001.291213839399</v>
+        <v>1001.291213839395</v>
       </c>
       <c r="X20" t="n">
-        <v>896.6950588827781</v>
+        <v>896.6950588827751</v>
       </c>
       <c r="Y20" t="n">
-        <v>780.587188980502</v>
+        <v>780.5871889804994</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>248.0559014601995</v>
+        <v>556.8548549223551</v>
       </c>
       <c r="C21" t="n">
-        <v>248.0559014601995</v>
+        <v>395.1511821633098</v>
       </c>
       <c r="D21" t="n">
-        <v>248.0559014601995</v>
+        <v>256.3125451535219</v>
       </c>
       <c r="E21" t="n">
-        <v>248.0559014601995</v>
+        <v>256.3125451535219</v>
       </c>
       <c r="F21" t="n">
-        <v>248.0559014601995</v>
+        <v>248.0559014601994</v>
       </c>
       <c r="G21" t="n">
         <v>119.6585367590521</v>
       </c>
       <c r="H21" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I21" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J21" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K21" t="n">
-        <v>304.8163121699842</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="L21" t="n">
-        <v>304.8163121699842</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="M21" t="n">
-        <v>304.8163121699842</v>
+        <v>95.87929100740746</v>
       </c>
       <c r="N21" t="n">
-        <v>379.4988091503249</v>
+        <v>379.4988091503223</v>
       </c>
       <c r="O21" t="n">
-        <v>663.1183272932409</v>
+        <v>663.1183272932371</v>
       </c>
       <c r="P21" t="n">
-        <v>946.7378454361569</v>
+        <v>946.7378454361519</v>
       </c>
       <c r="Q21" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.93744704208</v>
       </c>
       <c r="R21" t="n">
-        <v>1145.937447042085</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="S21" t="n">
-        <v>1145.937447042085</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="T21" t="n">
-        <v>1134.157388086953</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="U21" t="n">
-        <v>915.684380900761</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="V21" t="n">
-        <v>687.2887583490949</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="W21" t="n">
-        <v>445.9728895824049</v>
+        <v>1106.712612176243</v>
       </c>
       <c r="X21" t="n">
-        <v>248.0559014601995</v>
+        <v>908.7956240540371</v>
       </c>
       <c r="Y21" t="n">
-        <v>248.0559014601995</v>
+        <v>716.274297703616</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>367.8384394518368</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="C22" t="n">
-        <v>367.8384394518368</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="D22" t="n">
-        <v>367.8384394518368</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="E22" t="n">
-        <v>215.8294252131556</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="F22" t="n">
-        <v>63.34877023893272</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="G22" t="n">
-        <v>63.34877023893272</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="H22" t="n">
-        <v>63.34877023893272</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="I22" t="n">
-        <v>63.34877023893272</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="J22" t="n">
-        <v>22.9187489408417</v>
+        <v>22.9187489408416</v>
       </c>
       <c r="K22" t="n">
-        <v>88.1346383419359</v>
+        <v>88.13463834193578</v>
       </c>
       <c r="L22" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344954</v>
       </c>
       <c r="M22" t="n">
-        <v>389.8383804074948</v>
+        <v>389.8383804074947</v>
       </c>
       <c r="N22" t="n">
-        <v>549.897637179242</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O22" t="n">
-        <v>686.8197138278657</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P22" t="n">
-        <v>782.6960284509504</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q22" t="n">
-        <v>767.4049643885971</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="R22" t="n">
-        <v>767.4049643885971</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="S22" t="n">
-        <v>558.5332338792836</v>
+        <v>726.6626891586459</v>
       </c>
       <c r="T22" t="n">
-        <v>386.3019668911217</v>
+        <v>494.6698992924726</v>
       </c>
       <c r="U22" t="n">
-        <v>376.5608554125519</v>
+        <v>484.9287878139033</v>
       </c>
       <c r="V22" t="n">
-        <v>376.5608554125519</v>
+        <v>484.9287878139033</v>
       </c>
       <c r="W22" t="n">
-        <v>367.8384394518368</v>
+        <v>476.2063718531888</v>
       </c>
       <c r="X22" t="n">
-        <v>367.8384394518368</v>
+        <v>244.9539077485645</v>
       </c>
       <c r="Y22" t="n">
-        <v>367.8384394518368</v>
+        <v>22.9187489408416</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>663.9776349843687</v>
+        <v>663.9776349843657</v>
       </c>
       <c r="C23" t="n">
-        <v>559.4778618390617</v>
+        <v>559.4778618390594</v>
       </c>
       <c r="D23" t="n">
-        <v>464.0878825881712</v>
+        <v>464.0878825881694</v>
       </c>
       <c r="E23" t="n">
-        <v>346.7361482161639</v>
+        <v>346.7361482161625</v>
       </c>
       <c r="F23" t="n">
-        <v>210.0189430482203</v>
+        <v>210.0189430482194</v>
       </c>
       <c r="G23" t="n">
-        <v>71.96783189840573</v>
+        <v>71.96783189840504</v>
       </c>
       <c r="H23" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="I23" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="J23" t="n">
-        <v>146.3995003278775</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="K23" t="n">
-        <v>430.0190184707935</v>
+        <v>146.3995003278774</v>
       </c>
       <c r="L23" t="n">
-        <v>713.6385366137096</v>
+        <v>430.019018470792</v>
       </c>
       <c r="M23" t="n">
-        <v>997.2580547566256</v>
+        <v>430.019018470792</v>
       </c>
       <c r="N23" t="n">
-        <v>1145.937447042085</v>
+        <v>430.019018470792</v>
       </c>
       <c r="O23" t="n">
-        <v>1145.937447042085</v>
+        <v>713.6385366137067</v>
       </c>
       <c r="P23" t="n">
-        <v>1145.937447042085</v>
+        <v>997.2580547566213</v>
       </c>
       <c r="Q23" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="R23" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="S23" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="T23" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="U23" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="V23" t="n">
-        <v>1086.392158459912</v>
+        <v>1086.392158459907</v>
       </c>
       <c r="W23" t="n">
-        <v>1001.291213839399</v>
+        <v>1001.291213839394</v>
       </c>
       <c r="X23" t="n">
-        <v>896.6950588827782</v>
+        <v>896.6950588827741</v>
       </c>
       <c r="Y23" t="n">
-        <v>780.587188980502</v>
+        <v>780.5871889804985</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>613.2939786187901</v>
+        <v>109.8366272723802</v>
       </c>
       <c r="C24" t="n">
-        <v>613.2939786187901</v>
+        <v>109.8366272723802</v>
       </c>
       <c r="D24" t="n">
-        <v>474.4553416090022</v>
+        <v>109.8366272723802</v>
       </c>
       <c r="E24" t="n">
-        <v>327.4273316658734</v>
+        <v>109.8366272723802</v>
       </c>
       <c r="F24" t="n">
-        <v>192.7335336157477</v>
+        <v>109.8366272723802</v>
       </c>
       <c r="G24" t="n">
-        <v>64.33616891460036</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="H24" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="I24" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="J24" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="K24" t="n">
-        <v>304.8163121699842</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="L24" t="n">
-        <v>588.4358303129002</v>
+        <v>295.0788926133354</v>
       </c>
       <c r="M24" t="n">
-        <v>862.317928899169</v>
+        <v>578.69841075625</v>
       </c>
       <c r="N24" t="n">
-        <v>1145.937447042085</v>
+        <v>862.3179288991646</v>
       </c>
       <c r="O24" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="P24" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="Q24" t="n">
-        <v>1145.937447042085</v>
+        <v>1145.937447042079</v>
       </c>
       <c r="R24" t="n">
-        <v>1106.712612176248</v>
+        <v>1106.712612176242</v>
       </c>
       <c r="S24" t="n">
-        <v>960.0638176978946</v>
+        <v>960.0638176978887</v>
       </c>
       <c r="T24" t="n">
-        <v>772.7134214000511</v>
+        <v>960.0638176978887</v>
       </c>
       <c r="U24" t="n">
-        <v>772.7134214000511</v>
+        <v>741.5908105116968</v>
       </c>
       <c r="V24" t="n">
-        <v>772.7134214000511</v>
+        <v>741.5908105116968</v>
       </c>
       <c r="W24" t="n">
-        <v>772.7134214000511</v>
+        <v>500.2749417450068</v>
       </c>
       <c r="X24" t="n">
-        <v>772.7134214000511</v>
+        <v>302.3579536228013</v>
       </c>
       <c r="Y24" t="n">
-        <v>772.7134214000511</v>
+        <v>109.8366272723802</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>22.9187489408417</v>
+        <v>480.4803113259829</v>
       </c>
       <c r="C25" t="n">
-        <v>22.9187489408417</v>
+        <v>480.4803113259829</v>
       </c>
       <c r="D25" t="n">
-        <v>22.9187489408417</v>
+        <v>327.4084181537456</v>
       </c>
       <c r="E25" t="n">
-        <v>22.9187489408417</v>
+        <v>175.3994039150645</v>
       </c>
       <c r="F25" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="G25" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="H25" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="I25" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="J25" t="n">
-        <v>22.9187489408417</v>
+        <v>22.91874894084158</v>
       </c>
       <c r="K25" t="n">
-        <v>88.1346383419359</v>
+        <v>88.13463834193577</v>
       </c>
       <c r="L25" t="n">
-        <v>229.1938123344956</v>
+        <v>229.1938123344954</v>
       </c>
       <c r="M25" t="n">
-        <v>389.8383804074948</v>
+        <v>389.8383804074947</v>
       </c>
       <c r="N25" t="n">
-        <v>549.897637179242</v>
+        <v>549.8976371792419</v>
       </c>
       <c r="O25" t="n">
-        <v>686.8197138278657</v>
+        <v>686.8197138278656</v>
       </c>
       <c r="P25" t="n">
-        <v>782.6960284509504</v>
+        <v>782.6960284509503</v>
       </c>
       <c r="Q25" t="n">
-        <v>767.4049643885971</v>
+        <v>767.404964388597</v>
       </c>
       <c r="R25" t="n">
-        <v>767.4049643885971</v>
+        <v>767.404964388597</v>
       </c>
       <c r="S25" t="n">
-        <v>558.5332338792836</v>
+        <v>767.404964388597</v>
       </c>
       <c r="T25" t="n">
-        <v>558.5332338792836</v>
+        <v>535.4121745224237</v>
       </c>
       <c r="U25" t="n">
-        <v>271.3581368788278</v>
+        <v>525.6710630438545</v>
       </c>
       <c r="V25" t="n">
-        <v>271.3581368788278</v>
+        <v>489.2027272866974</v>
       </c>
       <c r="W25" t="n">
-        <v>22.9187489408417</v>
+        <v>480.4803113259829</v>
       </c>
       <c r="X25" t="n">
-        <v>22.9187489408417</v>
+        <v>480.4803113259829</v>
       </c>
       <c r="Y25" t="n">
-        <v>22.9187489408417</v>
+        <v>480.4803113259829</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1530.836034681927</v>
       </c>
       <c r="D26" t="n">
-        <v>1260.031596684502</v>
+        <v>1260.031596684503</v>
       </c>
       <c r="E26" t="n">
-        <v>967.2654035659604</v>
+        <v>967.2654035659608</v>
       </c>
       <c r="F26" t="n">
-        <v>655.1337396514821</v>
+        <v>655.1337396514825</v>
       </c>
       <c r="G26" t="n">
-        <v>341.6681697551326</v>
+        <v>341.668169755133</v>
       </c>
       <c r="H26" t="n">
         <v>117.204628051034</v>
@@ -6242,10 +6242,10 @@
         <v>2948.107226359267</v>
       </c>
       <c r="P26" t="n">
-        <v>3353.399977326597</v>
+        <v>3304.142521869142</v>
       </c>
       <c r="Q26" t="n">
-        <v>3513.335395342586</v>
+        <v>3464.07793988513</v>
       </c>
       <c r="R26" t="n">
         <v>3513.335395342586</v>
@@ -6257,7 +6257,7 @@
         <v>3322.598670684883</v>
       </c>
       <c r="U26" t="n">
-        <v>3169.782372364157</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V26" t="n">
         <v>2934.82262503545</v>
@@ -6303,25 +6303,25 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J27" t="n">
-        <v>161.1833043087667</v>
+        <v>70.26670790685172</v>
       </c>
       <c r="K27" t="n">
-        <v>443.0808675379092</v>
+        <v>113.1981445974141</v>
       </c>
       <c r="L27" t="n">
-        <v>879.3704059792465</v>
+        <v>549.4876830387512</v>
       </c>
       <c r="M27" t="n">
-        <v>1446.636233790623</v>
+        <v>1116.753510850128</v>
       </c>
       <c r="N27" t="n">
-        <v>1513.228478572861</v>
+        <v>1712.428080178789</v>
       </c>
       <c r="O27" t="n">
-        <v>1982.646103468393</v>
+        <v>2181.845705074321</v>
       </c>
       <c r="P27" t="n">
-        <v>2346.716013848877</v>
+        <v>2545.915615454805</v>
       </c>
       <c r="Q27" t="n">
         <v>2545.915615454805</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1810.750266573767</v>
+        <v>1810.750266573769</v>
       </c>
       <c r="C29" t="n">
-        <v>1530.836034681926</v>
+        <v>1530.836034681928</v>
       </c>
       <c r="D29" t="n">
-        <v>1260.031596684501</v>
+        <v>1260.031596684503</v>
       </c>
       <c r="E29" t="n">
-        <v>967.2654035659598</v>
+        <v>967.2654035659608</v>
       </c>
       <c r="F29" t="n">
-        <v>655.1337396514821</v>
+        <v>655.1337396514825</v>
       </c>
       <c r="G29" t="n">
-        <v>341.6681697551326</v>
+        <v>341.668169755133</v>
       </c>
       <c r="H29" t="n">
         <v>117.204628051034</v>
@@ -6461,16 +6461,16 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J29" t="n">
-        <v>193.7474592938875</v>
+        <v>293.7367974864094</v>
       </c>
       <c r="K29" t="n">
-        <v>551.6986189981744</v>
+        <v>711.0249908024841</v>
       </c>
       <c r="L29" t="n">
-        <v>1095.295251354644</v>
+        <v>1254.621623158954</v>
       </c>
       <c r="M29" t="n">
-        <v>1695.032836640285</v>
+        <v>1795.022174832807</v>
       </c>
       <c r="N29" t="n">
         <v>2281.586042640361</v>
@@ -6494,19 +6494,19 @@
         <v>3322.598670684883</v>
       </c>
       <c r="U29" t="n">
-        <v>3169.782372364157</v>
+        <v>3169.782372364158</v>
       </c>
       <c r="V29" t="n">
-        <v>2934.822625035449</v>
+        <v>2934.822625035451</v>
       </c>
       <c r="W29" t="n">
-        <v>2674.307221668401</v>
+        <v>2674.307221668403</v>
       </c>
       <c r="X29" t="n">
-        <v>2394.296607965246</v>
+        <v>2394.296607965248</v>
       </c>
       <c r="Y29" t="n">
-        <v>2102.774279316435</v>
+        <v>2102.774279316437</v>
       </c>
     </row>
     <row r="30">
@@ -6549,10 +6549,10 @@
         <v>879.3704059792465</v>
       </c>
       <c r="M30" t="n">
-        <v>917.5539092442004</v>
+        <v>1386.971534139733</v>
       </c>
       <c r="N30" t="n">
-        <v>1513.228478572861</v>
+        <v>1982.646103468393</v>
       </c>
       <c r="O30" t="n">
         <v>1982.646103468393</v>
@@ -6628,16 +6628,16 @@
         <v>536.8843220038123</v>
       </c>
       <c r="M31" t="n">
-        <v>797.5182282693333</v>
+        <v>797.5182282693327</v>
       </c>
       <c r="N31" t="n">
         <v>1057.566823233602</v>
       </c>
       <c r="O31" t="n">
-        <v>1294.478238074748</v>
+        <v>1294.478238074747</v>
       </c>
       <c r="P31" t="n">
-        <v>1490.343890890355</v>
+        <v>1490.343890890354</v>
       </c>
       <c r="Q31" t="n">
         <v>1575.346457195363</v>
@@ -6698,25 +6698,25 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J32" t="n">
-        <v>234.3997638746219</v>
+        <v>293.7367974864094</v>
       </c>
       <c r="K32" t="n">
-        <v>651.6879571906966</v>
+        <v>711.0249908024841</v>
       </c>
       <c r="L32" t="n">
-        <v>1195.284589547166</v>
+        <v>1254.621623158954</v>
       </c>
       <c r="M32" t="n">
-        <v>1795.022174832807</v>
+        <v>1754.369870252072</v>
       </c>
       <c r="N32" t="n">
-        <v>2281.586042640361</v>
+        <v>2340.923076252148</v>
       </c>
       <c r="O32" t="n">
-        <v>2788.780854554957</v>
+        <v>2848.117888166745</v>
       </c>
       <c r="P32" t="n">
-        <v>3204.15318367662</v>
+        <v>3263.490217288407</v>
       </c>
       <c r="Q32" t="n">
         <v>3464.07793988513</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>444.7085780007571</v>
+        <v>444.7085780007574</v>
       </c>
       <c r="C34" t="n">
-        <v>377.1121352377888</v>
+        <v>377.112135237789</v>
       </c>
       <c r="D34" t="n">
-        <v>326.0597688409029</v>
+        <v>326.0597688409031</v>
       </c>
       <c r="E34" t="n">
-        <v>276.0702813775731</v>
+        <v>276.0702813775733</v>
       </c>
       <c r="F34" t="n">
-        <v>225.6091531787016</v>
+        <v>225.6091531787019</v>
       </c>
       <c r="G34" t="n">
-        <v>158.9865440133844</v>
+        <v>158.9865440133847</v>
       </c>
       <c r="H34" t="n">
         <v>104.1016547704533</v>
@@ -6856,16 +6856,16 @@
         <v>70.26670790685172</v>
       </c>
       <c r="J34" t="n">
-        <v>130.6305822251146</v>
+        <v>130.6305822251145</v>
       </c>
       <c r="K34" t="n">
         <v>295.8358098187307</v>
       </c>
       <c r="L34" t="n">
-        <v>536.8843220038118</v>
+        <v>536.8843220038123</v>
       </c>
       <c r="M34" t="n">
-        <v>797.5182282693331</v>
+        <v>797.5182282693333</v>
       </c>
       <c r="N34" t="n">
         <v>1057.566823233602</v>
@@ -6874,19 +6874,19 @@
         <v>1294.478238074748</v>
       </c>
       <c r="P34" t="n">
-        <v>1490.343890890354</v>
+        <v>1490.343890890355</v>
       </c>
       <c r="Q34" t="n">
         <v>1575.346457195364</v>
       </c>
       <c r="R34" t="n">
-        <v>1540.326678694794</v>
+        <v>1540.326678694795</v>
       </c>
       <c r="S34" t="n">
-        <v>1433.474474960832</v>
+        <v>1433.474474960833</v>
       </c>
       <c r="T34" t="n">
-        <v>1303.50121187001</v>
+        <v>1303.501211870011</v>
       </c>
       <c r="U34" t="n">
         <v>1118.345641644906</v>
@@ -6898,10 +6898,10 @@
         <v>775.4929892714302</v>
       </c>
       <c r="X34" t="n">
-        <v>646.2600519421571</v>
+        <v>646.2600519421574</v>
       </c>
       <c r="Y34" t="n">
-        <v>526.2444199097856</v>
+        <v>526.2444199097858</v>
       </c>
     </row>
     <row r="35">
@@ -6911,37 +6911,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1277.059313318402</v>
+        <v>1277.059313318405</v>
       </c>
       <c r="C35" t="n">
-        <v>1074.450795454952</v>
+        <v>1074.450795454954</v>
       </c>
       <c r="D35" t="n">
-        <v>880.9520714859168</v>
+        <v>880.9520714859184</v>
       </c>
       <c r="E35" t="n">
-        <v>665.4915923957653</v>
+        <v>665.4915923957665</v>
       </c>
       <c r="F35" t="n">
-        <v>430.6656425096774</v>
+        <v>430.6656425096782</v>
       </c>
       <c r="G35" t="n">
-        <v>194.5057866417183</v>
+        <v>194.5057866417187</v>
       </c>
       <c r="H35" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I35" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J35" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K35" t="n">
-        <v>364.6468140895628</v>
+        <v>364.6468140895629</v>
       </c>
       <c r="L35" t="n">
-        <v>808.2541082535101</v>
+        <v>808.2541082535104</v>
       </c>
       <c r="M35" t="n">
         <v>1308.002355346629</v>
@@ -6953,34 +6953,34 @@
         <v>2201.771696876258</v>
       </c>
       <c r="P35" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="Q35" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R35" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S35" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="T35" t="n">
-        <v>2325.073433259175</v>
+        <v>2325.07343325918</v>
       </c>
       <c r="U35" t="n">
-        <v>2249.56284896684</v>
+        <v>2249.562848966844</v>
       </c>
       <c r="V35" t="n">
-        <v>2091.908815666523</v>
+        <v>2091.908815666527</v>
       </c>
       <c r="W35" t="n">
-        <v>1908.699126327865</v>
+        <v>1908.699126327869</v>
       </c>
       <c r="X35" t="n">
-        <v>1705.9942266531</v>
+        <v>1705.994226653103</v>
       </c>
       <c r="Y35" t="n">
-        <v>1491.77761203268</v>
+        <v>1491.777612032683</v>
       </c>
     </row>
     <row r="36">
@@ -6990,67 +6990,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>911.7305851134942</v>
+        <v>911.7305851134944</v>
       </c>
       <c r="C36" t="n">
-        <v>750.0269123544489</v>
+        <v>750.0269123544491</v>
       </c>
       <c r="D36" t="n">
-        <v>611.188275344661</v>
+        <v>611.1882753446612</v>
       </c>
       <c r="E36" t="n">
-        <v>464.1602654015322</v>
+        <v>464.1602654015323</v>
       </c>
       <c r="F36" t="n">
-        <v>329.4664673514065</v>
+        <v>329.4664673514067</v>
       </c>
       <c r="G36" t="n">
-        <v>201.0691026502592</v>
+        <v>201.0691026502593</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3293148320488</v>
+        <v>104.3293148320489</v>
       </c>
       <c r="I36" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J36" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K36" t="n">
-        <v>47.34795896601001</v>
+        <v>329.2455221951527</v>
       </c>
       <c r="L36" t="n">
-        <v>380.7135930087336</v>
+        <v>765.5350606364898</v>
       </c>
       <c r="M36" t="n">
-        <v>947.9794208201107</v>
+        <v>765.5350606364898</v>
       </c>
       <c r="N36" t="n">
-        <v>1533.910413024485</v>
+        <v>1334.710811418562</v>
       </c>
       <c r="O36" t="n">
-        <v>2003.328037920017</v>
+        <v>1804.128436314094</v>
       </c>
       <c r="P36" t="n">
-        <v>2367.397948300501</v>
+        <v>2168.198346694578</v>
       </c>
       <c r="Q36" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R36" t="n">
-        <v>2328.173113434663</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S36" t="n">
-        <v>2181.52431895631</v>
+        <v>2337.123237169773</v>
       </c>
       <c r="T36" t="n">
-        <v>2149.772840871929</v>
+        <v>2149.77284087193</v>
       </c>
       <c r="U36" t="n">
-        <v>1931.299833685737</v>
+        <v>1931.299833685738</v>
       </c>
       <c r="V36" t="n">
-        <v>1702.904211134071</v>
+        <v>1702.904211134072</v>
       </c>
       <c r="W36" t="n">
         <v>1461.588342367382</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215.9900949066786</v>
+        <v>215.9900949066787</v>
       </c>
       <c r="C37" t="n">
-        <v>215.9900949066786</v>
+        <v>215.9900949066787</v>
       </c>
       <c r="D37" t="n">
-        <v>215.9900949066786</v>
+        <v>215.9900949066787</v>
       </c>
       <c r="E37" t="n">
-        <v>215.9900949066786</v>
+        <v>215.9900949066787</v>
       </c>
       <c r="F37" t="n">
-        <v>215.9900949066786</v>
+        <v>215.9900949066787</v>
       </c>
       <c r="G37" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="H37" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I37" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J37" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K37" t="n">
-        <v>112.5638483671042</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L37" t="n">
-        <v>253.6230223596639</v>
+        <v>253.623022359664</v>
       </c>
       <c r="M37" t="n">
-        <v>414.2675904326632</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N37" t="n">
-        <v>574.3268472044103</v>
+        <v>574.3268472044105</v>
       </c>
       <c r="O37" t="n">
-        <v>711.2489238530341</v>
+        <v>711.2489238530342</v>
       </c>
       <c r="P37" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="Q37" t="n">
-        <v>791.8341744137655</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="R37" t="n">
-        <v>791.8341744137655</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="S37" t="n">
-        <v>762.2876847081935</v>
+        <v>777.5787487705466</v>
       </c>
       <c r="T37" t="n">
-        <v>610.9484446055897</v>
+        <v>724.9111997081145</v>
       </c>
       <c r="U37" t="n">
-        <v>503.0985884088756</v>
+        <v>617.0613435114001</v>
       </c>
       <c r="V37" t="n">
-        <v>421.6885247710399</v>
+        <v>535.6512798735639</v>
       </c>
       <c r="W37" t="n">
-        <v>314.8573640921806</v>
+        <v>428.8201191947043</v>
       </c>
       <c r="X37" t="n">
-        <v>262.930140791298</v>
+        <v>376.8928958938213</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.2202227873167</v>
+        <v>220.2202227873172</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1277.059313318403</v>
+        <v>1277.059313318405</v>
       </c>
       <c r="C38" t="n">
-        <v>1074.450795454952</v>
+        <v>1074.450795454954</v>
       </c>
       <c r="D38" t="n">
-        <v>880.9520714859175</v>
+        <v>880.9520714859184</v>
       </c>
       <c r="E38" t="n">
-        <v>665.4915923957661</v>
+        <v>665.4915923957666</v>
       </c>
       <c r="F38" t="n">
         <v>430.6656425096783</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5057866417181</v>
+        <v>194.5057866417187</v>
       </c>
       <c r="H38" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I38" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J38" t="n">
-        <v>47.34795896601001</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K38" t="n">
-        <v>364.6468140895628</v>
+        <v>488.1275654765987</v>
       </c>
       <c r="L38" t="n">
-        <v>808.2541082535101</v>
+        <v>498.561950732629</v>
       </c>
       <c r="M38" t="n">
-        <v>1308.002355346629</v>
+        <v>998.3101978257478</v>
       </c>
       <c r="N38" t="n">
-        <v>1794.566223154183</v>
+        <v>1484.874065633302</v>
       </c>
       <c r="O38" t="n">
-        <v>2201.771696876258</v>
+        <v>1892.079539355376</v>
       </c>
       <c r="P38" t="n">
-        <v>2367.397948300501</v>
+        <v>2207.462530284517</v>
       </c>
       <c r="Q38" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R38" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S38" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="T38" t="n">
-        <v>2325.073433259175</v>
+        <v>2325.07343325918</v>
       </c>
       <c r="U38" t="n">
-        <v>2249.56284896684</v>
+        <v>2249.562848966844</v>
       </c>
       <c r="V38" t="n">
-        <v>2091.908815666523</v>
+        <v>2091.908815666527</v>
       </c>
       <c r="W38" t="n">
-        <v>1908.699126327866</v>
+        <v>1908.699126327869</v>
       </c>
       <c r="X38" t="n">
-        <v>1705.994226653101</v>
+        <v>1705.994226653103</v>
       </c>
       <c r="Y38" t="n">
-        <v>1491.777612032681</v>
+        <v>1491.777612032683</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>756.1316669000312</v>
+        <v>772.8919481037065</v>
       </c>
       <c r="C39" t="n">
-        <v>594.4279941409859</v>
+        <v>611.1882753446612</v>
       </c>
       <c r="D39" t="n">
-        <v>455.589357131198</v>
+        <v>611.1882753446612</v>
       </c>
       <c r="E39" t="n">
-        <v>308.5613471880692</v>
+        <v>464.1602654015323</v>
       </c>
       <c r="F39" t="n">
-        <v>173.8675491379435</v>
+        <v>329.4664673514067</v>
       </c>
       <c r="G39" t="n">
-        <v>47.34795896601001</v>
+        <v>201.0691026502593</v>
       </c>
       <c r="H39" t="n">
-        <v>47.34795896601001</v>
+        <v>104.3293148320489</v>
       </c>
       <c r="I39" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J39" t="n">
-        <v>47.34795896601001</v>
+        <v>138.2645553679251</v>
       </c>
       <c r="K39" t="n">
-        <v>47.34795896601001</v>
+        <v>420.1621185970677</v>
       </c>
       <c r="L39" t="n">
-        <v>483.6374974073472</v>
+        <v>856.4516570384048</v>
       </c>
       <c r="M39" t="n">
-        <v>1050.903325218724</v>
+        <v>1423.717484849782</v>
       </c>
       <c r="N39" t="n">
-        <v>1636.834317423098</v>
+        <v>2003.328037920023</v>
       </c>
       <c r="O39" t="n">
-        <v>1804.128436314089</v>
+        <v>2003.328037920023</v>
       </c>
       <c r="P39" t="n">
-        <v>2168.198346694572</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="Q39" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R39" t="n">
-        <v>2328.173113434663</v>
+        <v>2328.173113434669</v>
       </c>
       <c r="S39" t="n">
-        <v>2181.52431895631</v>
+        <v>2181.524318956316</v>
       </c>
       <c r="T39" t="n">
-        <v>1994.173922658467</v>
+        <v>1994.173922658472</v>
       </c>
       <c r="U39" t="n">
-        <v>1775.700915472275</v>
+        <v>1775.70091547228</v>
       </c>
       <c r="V39" t="n">
-        <v>1547.305292920609</v>
+        <v>1547.305292920614</v>
       </c>
       <c r="W39" t="n">
-        <v>1305.989424153919</v>
+        <v>1305.989424153924</v>
       </c>
       <c r="X39" t="n">
-        <v>1108.072436031713</v>
+        <v>1108.072436031719</v>
       </c>
       <c r="Y39" t="n">
-        <v>915.5511096812921</v>
+        <v>932.3113908849673</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.3569732046912</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="C40" t="n">
-        <v>199.3569732046912</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="D40" t="n">
-        <v>199.3569732046912</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="E40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="F40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="G40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="H40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J40" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K40" t="n">
-        <v>112.5638483671042</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L40" t="n">
-        <v>253.6230223596639</v>
+        <v>253.623022359664</v>
       </c>
       <c r="M40" t="n">
-        <v>414.2675904326632</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N40" t="n">
-        <v>574.3268472044103</v>
+        <v>574.3268472044105</v>
       </c>
       <c r="O40" t="n">
-        <v>711.2489238530341</v>
+        <v>711.2489238530342</v>
       </c>
       <c r="P40" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="Q40" t="n">
-        <v>791.8341744137655</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="R40" t="n">
-        <v>791.8341744137655</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="S40" t="n">
-        <v>762.2876847081936</v>
+        <v>674.2990985310965</v>
       </c>
       <c r="T40" t="n">
-        <v>709.620135645762</v>
+        <v>442.3063086649233</v>
       </c>
       <c r="U40" t="n">
-        <v>601.7702794490481</v>
+        <v>334.4564524682089</v>
       </c>
       <c r="V40" t="n">
-        <v>520.3602158112125</v>
+        <v>253.0463888303728</v>
       </c>
       <c r="W40" t="n">
-        <v>413.5290551323533</v>
+        <v>146.2152281515132</v>
       </c>
       <c r="X40" t="n">
-        <v>361.6018318314709</v>
+        <v>94.28800485063026</v>
       </c>
       <c r="Y40" t="n">
-        <v>203.5871010853293</v>
+        <v>51.57808684664865</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1277.059313318403</v>
+        <v>1277.059313318406</v>
       </c>
       <c r="C41" t="n">
-        <v>1074.450795454952</v>
+        <v>1074.450795454954</v>
       </c>
       <c r="D41" t="n">
-        <v>880.952071485917</v>
+        <v>880.9520714859194</v>
       </c>
       <c r="E41" t="n">
-        <v>665.4915923957653</v>
+        <v>665.4915923957676</v>
       </c>
       <c r="F41" t="n">
-        <v>430.6656425096776</v>
+        <v>430.6656425096793</v>
       </c>
       <c r="G41" t="n">
-        <v>194.5057866417182</v>
+        <v>194.5057866417186</v>
       </c>
       <c r="H41" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I41" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J41" t="n">
-        <v>47.34795896601001</v>
+        <v>170.8287103530459</v>
       </c>
       <c r="K41" t="n">
-        <v>214.8900745846652</v>
+        <v>488.1275654765987</v>
       </c>
       <c r="L41" t="n">
-        <v>658.4973687486126</v>
+        <v>498.561950732629</v>
       </c>
       <c r="M41" t="n">
-        <v>1158.245615841731</v>
+        <v>998.3101978257478</v>
       </c>
       <c r="N41" t="n">
-        <v>1644.809483649286</v>
+        <v>1484.874065633302</v>
       </c>
       <c r="O41" t="n">
-        <v>2052.01495737136</v>
+        <v>1892.079539355376</v>
       </c>
       <c r="P41" t="n">
-        <v>2367.397948300501</v>
+        <v>2207.462530284517</v>
       </c>
       <c r="Q41" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R41" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S41" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="T41" t="n">
-        <v>2325.073433259175</v>
+        <v>2325.07343325918</v>
       </c>
       <c r="U41" t="n">
-        <v>2249.56284896684</v>
+        <v>2249.562848966844</v>
       </c>
       <c r="V41" t="n">
-        <v>2091.908815666523</v>
+        <v>2091.908815666527</v>
       </c>
       <c r="W41" t="n">
-        <v>1908.699126327866</v>
+        <v>1908.699126327869</v>
       </c>
       <c r="X41" t="n">
-        <v>1705.994226653101</v>
+        <v>1705.994226653104</v>
       </c>
       <c r="Y41" t="n">
-        <v>1491.77761203268</v>
+        <v>1491.777612032683</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>756.1316669000312</v>
+        <v>911.7305851134944</v>
       </c>
       <c r="C42" t="n">
-        <v>594.4279941409859</v>
+        <v>750.0269123544491</v>
       </c>
       <c r="D42" t="n">
-        <v>455.589357131198</v>
+        <v>611.1882753446612</v>
       </c>
       <c r="E42" t="n">
-        <v>308.5613471880692</v>
+        <v>464.1602654015323</v>
       </c>
       <c r="F42" t="n">
-        <v>173.8675491379435</v>
+        <v>329.4664673514067</v>
       </c>
       <c r="G42" t="n">
-        <v>173.8675491379435</v>
+        <v>201.0691026502593</v>
       </c>
       <c r="H42" t="n">
-        <v>77.1277613197331</v>
+        <v>104.3293148320489</v>
       </c>
       <c r="I42" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J42" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K42" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="L42" t="n">
-        <v>181.5139914028052</v>
+        <v>380.7135930087377</v>
       </c>
       <c r="M42" t="n">
-        <v>748.7798192141823</v>
+        <v>947.9794208201148</v>
       </c>
       <c r="N42" t="n">
-        <v>1334.710811418556</v>
+        <v>1533.91041302449</v>
       </c>
       <c r="O42" t="n">
-        <v>1804.128436314089</v>
+        <v>2003.328037920023</v>
       </c>
       <c r="P42" t="n">
-        <v>2168.198346694572</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="Q42" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R42" t="n">
-        <v>2328.173113434663</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S42" t="n">
-        <v>2181.52431895631</v>
+        <v>2220.749153822153</v>
       </c>
       <c r="T42" t="n">
-        <v>1994.173922658467</v>
+        <v>2033.398757524309</v>
       </c>
       <c r="U42" t="n">
-        <v>1775.700915472275</v>
+        <v>1931.299833685738</v>
       </c>
       <c r="V42" t="n">
-        <v>1547.305292920609</v>
+        <v>1702.904211134072</v>
       </c>
       <c r="W42" t="n">
-        <v>1305.989424153919</v>
+        <v>1461.588342367382</v>
       </c>
       <c r="X42" t="n">
-        <v>1108.072436031713</v>
+        <v>1263.671354245176</v>
       </c>
       <c r="Y42" t="n">
-        <v>915.5511096812921</v>
+        <v>1071.150027894755</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.6276092054628</v>
+        <v>135.3365451431073</v>
       </c>
       <c r="C43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="D43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="E43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="F43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="G43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="H43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J43" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K43" t="n">
-        <v>112.5638483671042</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L43" t="n">
-        <v>253.6230223596639</v>
+        <v>253.623022359664</v>
       </c>
       <c r="M43" t="n">
-        <v>414.2675904326632</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N43" t="n">
-        <v>574.3268472044103</v>
+        <v>574.3268472044105</v>
       </c>
       <c r="O43" t="n">
-        <v>711.2489238530341</v>
+        <v>711.2489238530342</v>
       </c>
       <c r="P43" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="Q43" t="n">
-        <v>807.1252384761187</v>
+        <v>791.8341744137656</v>
       </c>
       <c r="R43" t="n">
-        <v>807.1252384761187</v>
+        <v>791.8341744137656</v>
       </c>
       <c r="S43" t="n">
-        <v>777.5787487705469</v>
+        <v>762.2876847081934</v>
       </c>
       <c r="T43" t="n">
-        <v>724.9111997081153</v>
+        <v>709.6201356457615</v>
       </c>
       <c r="U43" t="n">
-        <v>617.0613435114013</v>
+        <v>601.7702794490472</v>
       </c>
       <c r="V43" t="n">
-        <v>535.6512798735656</v>
+        <v>520.3602158112111</v>
       </c>
       <c r="W43" t="n">
-        <v>428.8201191947064</v>
+        <v>413.5290551323516</v>
       </c>
       <c r="X43" t="n">
-        <v>376.8928958938239</v>
+        <v>361.6018318314687</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.857737086101</v>
+        <v>318.8919138274871</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1277.059313318403</v>
+        <v>1277.059313318405</v>
       </c>
       <c r="C44" t="n">
-        <v>1074.450795454952</v>
+        <v>1074.450795454954</v>
       </c>
       <c r="D44" t="n">
-        <v>880.9520714859168</v>
+        <v>880.9520714859184</v>
       </c>
       <c r="E44" t="n">
-        <v>665.4915923957651</v>
+        <v>665.4915923957666</v>
       </c>
       <c r="F44" t="n">
-        <v>430.6656425096771</v>
+        <v>430.6656425096782</v>
       </c>
       <c r="G44" t="n">
-        <v>194.5057866417183</v>
+        <v>194.5057866417187</v>
       </c>
       <c r="H44" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I44" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J44" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K44" t="n">
-        <v>364.6468140895628</v>
+        <v>214.8900745846707</v>
       </c>
       <c r="L44" t="n">
-        <v>808.2541082535101</v>
+        <v>658.4973687486181</v>
       </c>
       <c r="M44" t="n">
-        <v>1308.002355346629</v>
+        <v>1158.245615841737</v>
       </c>
       <c r="N44" t="n">
-        <v>1794.566223154183</v>
+        <v>1644.809483649291</v>
       </c>
       <c r="O44" t="n">
-        <v>2201.771696876258</v>
+        <v>2052.014957371366</v>
       </c>
       <c r="P44" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="Q44" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R44" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="S44" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="T44" t="n">
-        <v>2325.073433259175</v>
+        <v>2325.07343325918</v>
       </c>
       <c r="U44" t="n">
-        <v>2249.56284896684</v>
+        <v>2249.562848966844</v>
       </c>
       <c r="V44" t="n">
-        <v>2091.908815666523</v>
+        <v>2091.908815666527</v>
       </c>
       <c r="W44" t="n">
-        <v>1908.699126327866</v>
+        <v>1908.699126327869</v>
       </c>
       <c r="X44" t="n">
-        <v>1705.994226653101</v>
+        <v>1705.994226653103</v>
       </c>
       <c r="Y44" t="n">
-        <v>1491.777612032681</v>
+        <v>1491.777612032683</v>
       </c>
     </row>
     <row r="45">
@@ -7701,34 +7701,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>911.7305851134942</v>
+        <v>758.009441429245</v>
       </c>
       <c r="C45" t="n">
-        <v>750.0269123544489</v>
+        <v>596.3057686701998</v>
       </c>
       <c r="D45" t="n">
-        <v>611.188275344661</v>
+        <v>457.4671316604119</v>
       </c>
       <c r="E45" t="n">
-        <v>464.1602654015322</v>
+        <v>310.4391217172831</v>
       </c>
       <c r="F45" t="n">
-        <v>329.4664673514065</v>
+        <v>175.7453236671575</v>
       </c>
       <c r="G45" t="n">
-        <v>201.0691026502592</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3293148320488</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I45" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J45" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K45" t="n">
-        <v>329.2455221951525</v>
+        <v>329.2455221951527</v>
       </c>
       <c r="L45" t="n">
         <v>765.5350606364898</v>
@@ -7737,40 +7737,40 @@
         <v>1332.800888447867</v>
       </c>
       <c r="N45" t="n">
-        <v>1334.710811418556</v>
+        <v>1918.731880652242</v>
       </c>
       <c r="O45" t="n">
-        <v>1804.128436314089</v>
+        <v>1918.731880652242</v>
       </c>
       <c r="P45" t="n">
-        <v>2168.198346694572</v>
+        <v>2168.198346694578</v>
       </c>
       <c r="Q45" t="n">
-        <v>2367.397948300501</v>
+        <v>2367.397948300506</v>
       </c>
       <c r="R45" t="n">
-        <v>2328.173113434663</v>
+        <v>2330.050887963877</v>
       </c>
       <c r="S45" t="n">
-        <v>2181.52431895631</v>
+        <v>2183.402093485524</v>
       </c>
       <c r="T45" t="n">
-        <v>2149.772840871929</v>
+        <v>1996.05169718768</v>
       </c>
       <c r="U45" t="n">
-        <v>1931.299833685737</v>
+        <v>1777.578690001488</v>
       </c>
       <c r="V45" t="n">
-        <v>1702.904211134071</v>
+        <v>1549.183067449822</v>
       </c>
       <c r="W45" t="n">
-        <v>1461.588342367382</v>
+        <v>1307.867198683132</v>
       </c>
       <c r="X45" t="n">
-        <v>1263.671354245176</v>
+        <v>1109.950210560927</v>
       </c>
       <c r="Y45" t="n">
-        <v>1071.150027894755</v>
+        <v>917.4288842105059</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>329.9528500092038</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="C46" t="n">
-        <v>329.9528500092038</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="D46" t="n">
-        <v>329.9528500092038</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="E46" t="n">
-        <v>329.9528500092038</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="F46" t="n">
-        <v>329.9528500092038</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="G46" t="n">
-        <v>183.202432604963</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="H46" t="n">
-        <v>183.202432604963</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="I46" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="J46" t="n">
-        <v>47.34795896601001</v>
+        <v>47.34795896601012</v>
       </c>
       <c r="K46" t="n">
-        <v>112.5638483671042</v>
+        <v>112.5638483671043</v>
       </c>
       <c r="L46" t="n">
-        <v>253.6230223596639</v>
+        <v>253.623022359664</v>
       </c>
       <c r="M46" t="n">
-        <v>414.2675904326632</v>
+        <v>414.2675904326633</v>
       </c>
       <c r="N46" t="n">
-        <v>574.3268472044103</v>
+        <v>574.3268472044105</v>
       </c>
       <c r="O46" t="n">
-        <v>711.2489238530341</v>
+        <v>711.2489238530342</v>
       </c>
       <c r="P46" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="Q46" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="R46" t="n">
-        <v>807.1252384761187</v>
+        <v>807.1252384761189</v>
       </c>
       <c r="S46" t="n">
-        <v>777.5787487705468</v>
+        <v>598.2535079668053</v>
       </c>
       <c r="T46" t="n">
-        <v>724.9111997081151</v>
+        <v>442.3063086649234</v>
       </c>
       <c r="U46" t="n">
-        <v>617.061343511401</v>
+        <v>334.456452468209</v>
       </c>
       <c r="V46" t="n">
-        <v>535.6512798735653</v>
+        <v>253.0463888303729</v>
       </c>
       <c r="W46" t="n">
-        <v>428.820119194706</v>
+        <v>146.2152281515133</v>
       </c>
       <c r="X46" t="n">
-        <v>376.8928958938233</v>
+        <v>94.28800485063032</v>
       </c>
       <c r="Y46" t="n">
-        <v>334.182977889842</v>
+        <v>51.57808684664867</v>
       </c>
     </row>
   </sheetData>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>219.8255997236959</v>
+        <v>95.09756801961933</v>
       </c>
       <c r="K11" t="n">
-        <v>100.8851422783194</v>
+        <v>387.3695040388395</v>
       </c>
       <c r="L11" t="n">
-        <v>94.87140299240633</v>
+        <v>381.3557647529263</v>
       </c>
       <c r="M11" t="n">
-        <v>366.0557461162351</v>
+        <v>79.5713843557138</v>
       </c>
       <c r="N11" t="n">
         <v>77.07234738451469</v>
       </c>
       <c r="O11" t="n">
-        <v>358.8362141166314</v>
+        <v>358.6308113490631</v>
       </c>
       <c r="P11" t="n">
-        <v>386.2540046772462</v>
+        <v>386.254004677245</v>
       </c>
       <c r="Q11" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689984</v>
       </c>
       <c r="R11" t="n">
         <v>85.43134583487716</v>
@@ -8766,7 +8766,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J12" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K12" t="n">
         <v>343.8048081163522</v>
@@ -8778,13 +8778,13 @@
         <v>32.42079720694221</v>
       </c>
       <c r="N12" t="n">
-        <v>96.89046811296342</v>
+        <v>291.5398840129608</v>
       </c>
       <c r="O12" t="n">
-        <v>324.346159754075</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P12" t="n">
-        <v>332.738576769729</v>
+        <v>332.7385767697277</v>
       </c>
       <c r="Q12" t="n">
         <v>273.1004740566038</v>
@@ -8930,22 +8930,22 @@
         <v>100.8851422783194</v>
       </c>
       <c r="L14" t="n">
-        <v>94.87140299240633</v>
+        <v>245.052607321152</v>
       </c>
       <c r="M14" t="n">
-        <v>79.5713843557138</v>
+        <v>366.0557461162338</v>
       </c>
       <c r="N14" t="n">
-        <v>363.5567091450359</v>
+        <v>363.5567091450347</v>
       </c>
       <c r="O14" t="n">
-        <v>358.8362141166314</v>
+        <v>370.205937076761</v>
       </c>
       <c r="P14" t="n">
-        <v>386.2540046772462</v>
+        <v>99.76964291672492</v>
       </c>
       <c r="Q14" t="n">
-        <v>276.0094878578761</v>
+        <v>114.4585605689984</v>
       </c>
       <c r="R14" t="n">
         <v>85.43134583487716</v>
@@ -9003,25 +9003,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201128</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>311.4822269551075</v>
+        <v>41.39594541839878</v>
       </c>
       <c r="M15" t="n">
-        <v>318.9051589674635</v>
+        <v>32.42079720694221</v>
       </c>
       <c r="N15" t="n">
-        <v>21.45360247625568</v>
+        <v>96.89046811296089</v>
       </c>
       <c r="O15" t="n">
-        <v>37.86179799355379</v>
+        <v>324.3461597540738</v>
       </c>
       <c r="P15" t="n">
-        <v>46.25421500920774</v>
+        <v>332.7385767697277</v>
       </c>
       <c r="Q15" t="n">
         <v>273.1004740566038</v>
@@ -9164,25 +9164,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K17" t="n">
-        <v>100.8851422783194</v>
+        <v>387.3695040388395</v>
       </c>
       <c r="L17" t="n">
-        <v>245.0526073211532</v>
+        <v>94.87140299240633</v>
       </c>
       <c r="M17" t="n">
-        <v>366.0557461162351</v>
+        <v>79.5713843557138</v>
       </c>
       <c r="N17" t="n">
-        <v>363.5567091450359</v>
+        <v>352.1869861849026</v>
       </c>
       <c r="O17" t="n">
-        <v>370.2059370767622</v>
+        <v>370.205937076761</v>
       </c>
       <c r="P17" t="n">
         <v>99.76964291672492</v>
       </c>
       <c r="Q17" t="n">
-        <v>114.4585605689984</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,25 +9240,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201128</v>
       </c>
       <c r="K18" t="n">
-        <v>343.8048081163522</v>
+        <v>132.7573119925374</v>
       </c>
       <c r="L18" t="n">
-        <v>311.4822269551075</v>
+        <v>41.39594541839878</v>
       </c>
       <c r="M18" t="n">
-        <v>318.9051589674635</v>
+        <v>32.42079720694221</v>
       </c>
       <c r="N18" t="n">
-        <v>21.45360247625568</v>
+        <v>307.9379642367757</v>
       </c>
       <c r="O18" t="n">
-        <v>37.86179799355379</v>
+        <v>324.3461597540738</v>
       </c>
       <c r="P18" t="n">
-        <v>46.25421500920774</v>
+        <v>332.7385767697277</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9401,19 +9401,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
-        <v>387.3695040388407</v>
+        <v>100.8851422783194</v>
       </c>
       <c r="L20" t="n">
-        <v>369.9860417927968</v>
+        <v>94.87140299240633</v>
       </c>
       <c r="M20" t="n">
-        <v>366.0557461162351</v>
+        <v>366.0557461162338</v>
       </c>
       <c r="N20" t="n">
-        <v>77.07234738451469</v>
+        <v>363.5567091450347</v>
       </c>
       <c r="O20" t="n">
-        <v>83.7215753162409</v>
+        <v>358.8362141166287</v>
       </c>
       <c r="P20" t="n">
         <v>99.76964291672492</v>
@@ -9480,22 +9480,22 @@
         <v>72.08340008201128</v>
       </c>
       <c r="K21" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358194</v>
       </c>
       <c r="L21" t="n">
         <v>41.39594541839878</v>
       </c>
       <c r="M21" t="n">
-        <v>32.42079720694221</v>
+        <v>106.1183144458976</v>
       </c>
       <c r="N21" t="n">
-        <v>96.89046811296342</v>
+        <v>307.9379642367757</v>
       </c>
       <c r="O21" t="n">
-        <v>324.346159754075</v>
+        <v>324.3461597540738</v>
       </c>
       <c r="P21" t="n">
-        <v>332.738576769729</v>
+        <v>332.7385767697277</v>
       </c>
       <c r="Q21" t="n">
         <v>273.1004740566038</v>
@@ -9638,25 +9638,25 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
-        <v>387.3695040388407</v>
+        <v>100.8851422783194</v>
       </c>
       <c r="L23" t="n">
-        <v>381.3557647529276</v>
+        <v>381.3557647529261</v>
       </c>
       <c r="M23" t="n">
-        <v>366.0557461162351</v>
+        <v>79.5713843557138</v>
       </c>
       <c r="N23" t="n">
-        <v>227.2535517132616</v>
+        <v>77.07234738451469</v>
       </c>
       <c r="O23" t="n">
-        <v>83.7215753162409</v>
+        <v>370.2059370767607</v>
       </c>
       <c r="P23" t="n">
-        <v>99.76964291672492</v>
+        <v>386.2540046772447</v>
       </c>
       <c r="Q23" t="n">
-        <v>114.4585605689984</v>
+        <v>264.6397648977437</v>
       </c>
       <c r="R23" t="n">
         <v>85.43134583487716</v>
@@ -9717,19 +9717,19 @@
         <v>72.08340008201128</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>59.05979475358194</v>
       </c>
       <c r="L24" t="n">
-        <v>327.88030717892</v>
+        <v>316.3051814512208</v>
       </c>
       <c r="M24" t="n">
-        <v>309.0693816375168</v>
+        <v>318.9051589674621</v>
       </c>
       <c r="N24" t="n">
-        <v>307.937964236777</v>
+        <v>307.9379642367755</v>
       </c>
       <c r="O24" t="n">
-        <v>37.86179799355379</v>
+        <v>324.3461597540735</v>
       </c>
       <c r="P24" t="n">
         <v>46.25421500920774</v>
@@ -9951,10 +9951,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>163.9183459425315</v>
+        <v>72.08340008201128</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>102.4248823198065</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9963,7 +9963,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>88.71849619568722</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
         <v>512.0210150597484</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273702</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10197,13 +10197,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>70.98999242406742</v>
+        <v>545.1492094902619</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10601,7 +10601,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P35" t="n">
-        <v>267.0688867795962</v>
+        <v>267.0688867796017</v>
       </c>
       <c r="Q35" t="n">
         <v>114.4585605689984</v>
@@ -10665,16 +10665,16 @@
         <v>72.08340008201128</v>
       </c>
       <c r="K36" t="n">
-        <v>59.05979475358194</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L36" t="n">
-        <v>378.1289090979176</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>32.42079720694221</v>
       </c>
       <c r="N36" t="n">
-        <v>613.3030895513808</v>
+        <v>596.3786032662273</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
@@ -10683,7 +10683,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.88875526273702</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
       </c>
       <c r="L38" t="n">
-        <v>542.9595789155856</v>
+        <v>105.4111860793056</v>
       </c>
       <c r="M38" t="n">
         <v>584.3675935406823</v>
@@ -10838,10 +10838,10 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P38" t="n">
-        <v>267.0688867795962</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q38" t="n">
-        <v>114.4585605689984</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,10 +10899,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>72.08340008201128</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>59.05979475358194</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10911,16 +10911,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>613.3030895513808</v>
+        <v>606.9188075977107</v>
       </c>
       <c r="O39" t="n">
-        <v>206.8457564693019</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P39" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273702</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>95.09756801961933</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>270.1196024991833</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L41" t="n">
-        <v>542.9595789155856</v>
+        <v>105.4111860793056</v>
       </c>
       <c r="M41" t="n">
         <v>584.3675935406823</v>
@@ -11078,7 +11078,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q41" t="n">
-        <v>114.4585605689984</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11142,13 +11142,13 @@
         <v>59.05979475358194</v>
       </c>
       <c r="L42" t="n">
-        <v>176.9171903040505</v>
+        <v>378.1289090979216</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>613.3030895513808</v>
+        <v>613.3030895513822</v>
       </c>
       <c r="O42" t="n">
         <v>512.0210150597484</v>
@@ -11157,7 +11157,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>273.1004740566038</v>
+        <v>71.88875526273702</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11297,7 +11297,7 @@
         <v>95.09756801961933</v>
       </c>
       <c r="K44" t="n">
-        <v>421.3890363425141</v>
+        <v>270.1196024991887</v>
       </c>
       <c r="L44" t="n">
         <v>542.9595789155856</v>
@@ -11312,7 +11312,7 @@
         <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>267.0688867795962</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>114.4585605689984</v>
@@ -11385,13 +11385,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>23.38281759816419</v>
+        <v>613.3030895513822</v>
       </c>
       <c r="O45" t="n">
-        <v>512.0210150597484</v>
+        <v>37.86179799355379</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>298.2405443449002</v>
       </c>
       <c r="Q45" t="n">
         <v>273.1004740566038</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>216.4427899637699</v>
+        <v>216.4427899637693</v>
       </c>
       <c r="C11" t="n">
-        <v>204.4541069214516</v>
+        <v>141.8025529860425</v>
       </c>
       <c r="D11" t="n">
-        <v>195.4354109659796</v>
+        <v>195.435410965979</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>217.1775485358846</v>
       </c>
       <c r="F11" t="n">
-        <v>236.3493646238623</v>
+        <v>236.3493646238617</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>149.5579236355857</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>78.62715268604666</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>204.5495249146525</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.161546007456</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23492,22 +23492,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>216.4427899637693</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>185.8413463060341</v>
       </c>
       <c r="D14" t="n">
-        <v>195.4354109659795</v>
+        <v>195.435410965979</v>
       </c>
       <c r="E14" t="n">
-        <v>217.177548535885</v>
+        <v>217.1775485358846</v>
       </c>
       <c r="F14" t="n">
-        <v>23.96529575268601</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>237.6699315459147</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>159.9491672039489</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>185.2492666819058</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>204.549524914652</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.9461227108512</v>
+        <v>215.9461227108507</v>
       </c>
     </row>
     <row r="15">
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -24029,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>-3.268496584496461e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>870368.2434917452</v>
+        <v>870368.2434917449</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>870368.243491745</v>
+        <v>870368.2434917449</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>978539.2321036011</v>
+        <v>978539.2321036007</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>978539.2321036011</v>
+        <v>978539.2321036007</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>978539.2321036011</v>
+        <v>978539.2321036007</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>497819.8104797477</v>
+        <v>497819.8104797479</v>
       </c>
       <c r="C2" t="n">
         <v>497819.8104797478</v>
@@ -26320,40 +26320,40 @@
         <v>497819.8104797477</v>
       </c>
       <c r="E2" t="n">
+        <v>435036.4187778485</v>
+      </c>
+      <c r="F2" t="n">
         <v>435036.4187778484</v>
       </c>
-      <c r="F2" t="n">
-        <v>435036.4187778485</v>
-      </c>
       <c r="G2" t="n">
+        <v>498955.639321218</v>
+      </c>
+      <c r="H2" t="n">
+        <v>498955.639321218</v>
+      </c>
+      <c r="I2" t="n">
         <v>498955.6393212181</v>
       </c>
-      <c r="H2" t="n">
-        <v>498955.6393212182</v>
-      </c>
-      <c r="I2" t="n">
-        <v>498955.6393212182</v>
-      </c>
       <c r="J2" t="n">
-        <v>498955.6393212182</v>
+        <v>498955.6393212183</v>
       </c>
       <c r="K2" t="n">
-        <v>498955.6393212181</v>
+        <v>498955.6393212184</v>
       </c>
       <c r="L2" t="n">
-        <v>498955.6393212179</v>
+        <v>498955.6393212177</v>
       </c>
       <c r="M2" t="n">
-        <v>498955.6393212186</v>
+        <v>498955.6393212188</v>
       </c>
       <c r="N2" t="n">
-        <v>498955.6393212183</v>
+        <v>498955.6393212191</v>
       </c>
       <c r="O2" t="n">
-        <v>498955.6393212185</v>
+        <v>498955.6393212188</v>
       </c>
       <c r="P2" t="n">
-        <v>498955.6393212184</v>
+        <v>498955.6393212189</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>346912.3222696491</v>
+        <v>346912.3222696492</v>
       </c>
       <c r="F3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>80799.46520607822</v>
+        <v>80799.46520607833</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>154853.867196284</v>
+        <v>154853.8671962844</v>
       </c>
       <c r="K3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80799.46520607822</v>
+        <v>80799.46520607831</v>
       </c>
       <c r="M3" t="n">
-        <v>61226.12551048509</v>
+        <v>61226.1255104848</v>
       </c>
       <c r="N3" t="n">
-        <v>9.094947017729282e-11</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26424,19 +26424,19 @@
         <v>428830.9004778579</v>
       </c>
       <c r="E4" t="n">
-        <v>319178.546396093</v>
+        <v>319178.5463960931</v>
       </c>
       <c r="F4" t="n">
-        <v>319178.546396093</v>
+        <v>319178.5463960931</v>
       </c>
       <c r="G4" t="n">
-        <v>375306.2180609187</v>
+        <v>375306.2180609188</v>
       </c>
       <c r="H4" t="n">
-        <v>375306.2180609187</v>
+        <v>375306.2180609189</v>
       </c>
       <c r="I4" t="n">
-        <v>375306.2180609187</v>
+        <v>375306.2180609189</v>
       </c>
       <c r="J4" t="n">
         <v>370031.7847048189</v>
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>35340.22236026637</v>
+        <v>35340.22236026635</v>
       </c>
       <c r="F5" t="n">
-        <v>35340.22236026639</v>
+        <v>35340.22236026635</v>
       </c>
       <c r="G5" t="n">
-        <v>43831.13516077862</v>
+        <v>43831.13516077861</v>
       </c>
       <c r="H5" t="n">
-        <v>43831.13516077862</v>
+        <v>43831.13516077861</v>
       </c>
       <c r="I5" t="n">
-        <v>43831.13516077862</v>
+        <v>43831.13516077859</v>
       </c>
       <c r="J5" t="n">
         <v>65216.13502390745</v>
@@ -26500,16 +26500,16 @@
         <v>65216.13502390745</v>
       </c>
       <c r="M5" t="n">
-        <v>54231.90976079397</v>
+        <v>54231.90976079403</v>
       </c>
       <c r="N5" t="n">
-        <v>54231.90976079398</v>
+        <v>54231.90976079403</v>
       </c>
       <c r="O5" t="n">
-        <v>54231.90976079398</v>
+        <v>54231.90976079403</v>
       </c>
       <c r="P5" t="n">
-        <v>54231.90976079397</v>
+        <v>54231.90976079403</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>35361.31000188986</v>
+        <v>35356.94142942284</v>
       </c>
       <c r="C6" t="n">
-        <v>35361.31000188992</v>
+        <v>35356.94142942272</v>
       </c>
       <c r="D6" t="n">
-        <v>35361.31000188986</v>
+        <v>35356.94142942261</v>
       </c>
       <c r="E6" t="n">
-        <v>-266394.6722481601</v>
+        <v>-266640.5154040962</v>
       </c>
       <c r="F6" t="n">
-        <v>80517.65002148911</v>
+        <v>80271.80686555289</v>
       </c>
       <c r="G6" t="n">
-        <v>-981.1791065574798</v>
+        <v>-981.1791065577562</v>
       </c>
       <c r="H6" t="n">
-        <v>79818.28609952083</v>
+        <v>79818.2860995205</v>
       </c>
       <c r="I6" t="n">
-        <v>79818.28609952089</v>
+        <v>79818.28609952063</v>
       </c>
       <c r="J6" t="n">
-        <v>-91146.14760379207</v>
+        <v>-91146.14760379241</v>
       </c>
       <c r="K6" t="n">
-        <v>63707.7195924917</v>
+        <v>63707.71959249205</v>
       </c>
       <c r="L6" t="n">
-        <v>-17091.74561358673</v>
+        <v>-17091.74561358696</v>
       </c>
       <c r="M6" t="n">
-        <v>13045.86164715426</v>
+        <v>13045.8616471546</v>
       </c>
       <c r="N6" t="n">
-        <v>74271.98715763887</v>
+        <v>74271.9871576397</v>
       </c>
       <c r="O6" t="n">
-        <v>74271.98715763922</v>
+        <v>74271.98715763939</v>
       </c>
       <c r="P6" t="n">
-        <v>74271.98715763923</v>
+        <v>74271.9871576397</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="F2" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="G2" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="H2" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="I2" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="J2" t="n">
         <v>100.9993315075979</v>
@@ -26716,16 +26716,16 @@
         <v>100.9993315075979</v>
       </c>
       <c r="M2" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="N2" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="O2" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="P2" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="F4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="G4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="H4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="I4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="J4" t="n">
         <v>878.3338488356464</v>
@@ -26820,16 +26820,16 @@
         <v>878.3338488356464</v>
       </c>
       <c r="M4" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751265</v>
       </c>
       <c r="N4" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751265</v>
       </c>
       <c r="O4" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751265</v>
       </c>
       <c r="P4" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751265</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="F2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,16 +26932,16 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="M2" t="n">
-        <v>76.53265688810636</v>
+        <v>76.53265688810599</v>
       </c>
       <c r="N2" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751267</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="K2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>100.9993315075978</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="C11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="D11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="E11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="F11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="G11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="H11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="I11" t="n">
         <v>147.4678724503383</v>
@@ -28141,22 +28141,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y11" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="12">
@@ -28172,10 +28172,10 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -28184,10 +28184,10 @@
         <v>127.1133910541359</v>
       </c>
       <c r="H12" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>38.832586517179</v>
       </c>
       <c r="S12" t="n">
-        <v>145.1823065335695</v>
+        <v>91.57057652487883</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -28226,16 +28226,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>77.21231822728623</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y12" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="13">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="C13" t="n">
         <v>167.9198098429365</v>
@@ -28260,7 +28260,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>106.9487339223796</v>
+        <v>91.81058050064603</v>
       </c>
       <c r="H13" t="n">
         <v>155.3353718580994</v>
@@ -28290,31 +28290,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R13" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="T13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W13" t="n">
-        <v>173.6603141590691</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X13" t="n">
-        <v>173.6603141590691</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="C14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="D14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="E14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="F14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="G14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="H14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="I14" t="n">
         <v>147.4678724503383</v>
@@ -28378,22 +28378,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="15">
@@ -28403,13 +28403,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
         <v>145.5577298436975</v>
@@ -28424,7 +28424,7 @@
         <v>95.77238994002833</v>
       </c>
       <c r="I15" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>145.1823065335695</v>
       </c>
       <c r="T15" t="n">
-        <v>173.6603141590692</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>36.52344082771339</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>6.960260832462922</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y15" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
     </row>
     <row r="16">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>173.6603141590692</v>
+        <v>153.6790545852936</v>
       </c>
       <c r="C16" t="n">
         <v>167.9198098429365</v>
@@ -28494,7 +28494,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
         <v>166.9557145812619</v>
@@ -28533,25 +28533,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="T16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="U16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="V16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="W16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="X16" t="n">
-        <v>173.6603141590692</v>
+        <v>173.6603141590696</v>
       </c>
       <c r="Y16" t="n">
-        <v>130.9745888507078</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="C17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="D17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="E17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="F17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="G17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="H17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="I17" t="n">
         <v>147.4678724503383</v>
@@ -28621,16 +28621,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="W17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="Y17" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
     </row>
     <row r="18">
@@ -28640,25 +28640,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>9.012145145584455</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>56.41154230737835</v>
@@ -28688,28 +28688,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>145.1823065335695</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>185.4768923348651</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>216.28827711433</v>
       </c>
       <c r="V18" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>238.9027100790231</v>
+        <v>78.95029173434867</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -28719,13 +28719,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E19" t="n">
         <v>150.4889240962943</v>
@@ -28734,7 +28734,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G19" t="n">
-        <v>166.9557145812619</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>155.3353718580994</v>
@@ -28743,7 +28743,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>35.2805637261944</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,22 +28767,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>135.6689122231617</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>206.7830132042204</v>
       </c>
       <c r="T19" t="n">
-        <v>229.6728619675116</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1237255305731</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="C20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="D20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="E20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="F20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="G20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="H20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="I20" t="n">
         <v>147.4678724503383</v>
@@ -28858,16 +28858,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="W20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
     </row>
     <row r="21">
@@ -28877,19 +28877,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>125.1727828132351</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -28925,28 +28925,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>38.832586517179</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>145.1823065335695</v>
       </c>
       <c r="T21" t="n">
-        <v>173.8146339692844</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>216.28827711433</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -28965,10 +28965,10 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
         <v>166.9557145812619</v>
@@ -28980,7 +28980,7 @@
         <v>134.4959289025635</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>40.02572108511011</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R22" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>151.310007304839</v>
       </c>
       <c r="T22" t="n">
-        <v>59.16390764923133</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="V22" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X22" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="C23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="D23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="E23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="F23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="G23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="H23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="I23" t="n">
         <v>147.4678724503383</v>
@@ -29095,16 +29095,16 @@
         <v>252.2874668451163</v>
       </c>
       <c r="V23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="W23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="Y23" t="n">
-        <v>274.659645666667</v>
+        <v>274.6596456666675</v>
       </c>
     </row>
     <row r="24">
@@ -29114,25 +29114,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
         <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>41.06469150591268</v>
       </c>
       <c r="H24" t="n">
-        <v>54.76914416600726</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I24" t="n">
         <v>56.41154230737835</v>
@@ -29168,22 +29168,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>185.4768923348651</v>
       </c>
       <c r="U24" t="n">
-        <v>216.28827711433</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -29199,13 +29199,13 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.9557145812619</v>
@@ -29244,19 +29244,19 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>206.7830132042204</v>
       </c>
       <c r="T25" t="n">
-        <v>229.6728619675116</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="V25" t="n">
-        <v>258.1279513971616</v>
+        <v>222.0242989975762</v>
       </c>
       <c r="W25" t="n">
-        <v>37.33984340916859</v>
+        <v>274.6596456666675</v>
       </c>
       <c r="X25" t="n">
         <v>228.939939463578</v>
@@ -29314,13 +29314,13 @@
         <v>100.9993315075979</v>
       </c>
       <c r="P26" t="n">
-        <v>90.81793943251466</v>
+        <v>41.06293391993358</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>51.24432599501663</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="S26" t="n">
         <v>100.9993315075979</v>
@@ -29533,19 +29533,19 @@
         <v>100.9993315075979</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="K29" t="n">
-        <v>41.06293391993341</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="L29" t="n">
         <v>100.9993315075979</v>
       </c>
       <c r="M29" t="n">
-        <v>100.9993315075979</v>
+        <v>41.06293391993358</v>
       </c>
       <c r="N29" t="n">
-        <v>100.9993315075979</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>100.9993315075979</v>
@@ -29700,7 +29700,7 @@
         <v>100.9993315075979</v>
       </c>
       <c r="M31" t="n">
-        <v>100.9993315075979</v>
+        <v>100.9993315075971</v>
       </c>
       <c r="N31" t="n">
         <v>100.9993315075979</v>
@@ -29712,7 +29712,7 @@
         <v>100.9993315075979</v>
       </c>
       <c r="Q31" t="n">
-        <v>100.9993315075972</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="R31" t="n">
         <v>100.9993315075979</v>
@@ -29770,7 +29770,7 @@
         <v>100.9993315075979</v>
       </c>
       <c r="J32" t="n">
-        <v>41.0629339199337</v>
+        <v>100.9993315075979</v>
       </c>
       <c r="K32" t="n">
         <v>100.9993315075979</v>
@@ -29779,10 +29779,10 @@
         <v>100.9993315075979</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>100.9993315075979</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>100.9993315075979</v>
@@ -29791,7 +29791,7 @@
         <v>100.9993315075979</v>
       </c>
       <c r="Q32" t="n">
-        <v>100.9993315075979</v>
+        <v>41.0629339199337</v>
       </c>
       <c r="R32" t="n">
         <v>100.9993315075979</v>
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="C35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="D35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="E35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="F35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="G35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="H35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="I35" t="n">
         <v>147.4678724503383</v>
@@ -30037,22 +30037,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="U35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="V35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="W35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="X35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="Y35" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
     </row>
     <row r="36">
@@ -30110,13 +30110,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>115.2103425141442</v>
       </c>
       <c r="T36" t="n">
-        <v>154.0429290313281</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R37" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="T37" t="n">
-        <v>79.84701426593372</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="U37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="V37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="W37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="X37" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="Y37" t="n">
-        <v>177.5319883957042</v>
+        <v>64.70886084420667</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="C38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="D38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="E38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="F38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="G38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="H38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="I38" t="n">
         <v>147.4678724503383</v>
@@ -30274,22 +30274,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="U38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="V38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y38" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="39">
@@ -30305,7 +30305,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -30314,13 +30314,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.858996783921697</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>95.77238994002833</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>56.41154230737835</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30368,7 +30368,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>16.59267839163297</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30387,7 +30387,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
         <v>150.9558484244806</v>
@@ -30423,31 +30423,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>15.13815342172978</v>
       </c>
       <c r="R40" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S40" t="n">
-        <v>177.5319883957043</v>
+        <v>75.28513465864833</v>
       </c>
       <c r="T40" t="n">
-        <v>177.5319883957043</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="V40" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W40" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X40" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y40" t="n">
-        <v>63.38022378096551</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="C41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="D41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="E41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="F41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="G41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="H41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="I41" t="n">
         <v>147.4678724503383</v>
@@ -30511,22 +30511,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="U41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="V41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y41" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="42">
@@ -30551,13 +30551,13 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.1133910541359</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.9295379771925</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -30584,7 +30584,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>38.832586517179</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -30593,7 +30593,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>115.2103425141443</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>177.5319883957043</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.6729561058782</v>
+        <v>80.81110952761027</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30660,31 +30660,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.13815342172978</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>135.6689122231617</v>
       </c>
       <c r="S43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="T43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="U43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="V43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="W43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="X43" t="n">
-        <v>177.5319883957043</v>
+        <v>177.5319883957039</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>177.5319883957039</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="C44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="D44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="E44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="F44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="G44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="H44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="I44" t="n">
         <v>147.4678724503383</v>
@@ -30748,22 +30748,22 @@
         <v>171.3947621397047</v>
       </c>
       <c r="T44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="U44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="V44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="W44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="X44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="Y44" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
     </row>
     <row r="45">
@@ -30791,10 +30791,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>95.77238994002833</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>56.41154230737835</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -30821,13 +30821,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>1.858996783916233</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>154.0429290313281</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="C46" t="n">
         <v>167.9198098429365</v>
@@ -30867,13 +30867,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>21.67280135106347</v>
+        <v>166.9557145812619</v>
       </c>
       <c r="H46" t="n">
         <v>155.3353718580994</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>134.4959289025635</v>
       </c>
       <c r="J46" t="n">
         <v>40.02572108511011</v>
@@ -30903,25 +30903,25 @@
         <v>135.6689122231617</v>
       </c>
       <c r="S46" t="n">
-        <v>177.5319883957042</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>177.5319883957042</v>
+        <v>75.28513465864856</v>
       </c>
       <c r="U46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="V46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="W46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="X46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
       <c r="Y46" t="n">
-        <v>177.5319883957042</v>
+        <v>177.5319883957038</v>
       </c>
     </row>
   </sheetData>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>124.7280317040766</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="M11" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>275.1146388003905</v>
+        <v>274.9092360328222</v>
       </c>
       <c r="P11" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="Q11" t="n">
-        <v>161.5509272888777</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K12" t="n">
         <v>284.7450133627702</v>
@@ -35498,13 +35498,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>75.43686563670774</v>
+        <v>270.0862815367051</v>
       </c>
       <c r="O12" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="Q12" t="n">
         <v>201.2117187938668</v>
@@ -35650,22 +35650,22 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>150.1812043287457</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="N14" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="O14" t="n">
-        <v>275.1146388003905</v>
+        <v>286.48436176052</v>
       </c>
       <c r="P14" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>161.5509272888777</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>91.83494586052021</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>284.7450133627702</v>
       </c>
       <c r="L15" t="n">
-        <v>270.0862815367088</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>75.43686563670521</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="Q15" t="n">
         <v>201.2117187938668</v>
@@ -35884,25 +35884,25 @@
         <v>124.7280317040766</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="L17" t="n">
-        <v>150.1812043287469</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>286.4843617605213</v>
+        <v>275.1146388003879</v>
       </c>
       <c r="O17" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>161.5509272888777</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>91.83494586052021</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>284.7450133627702</v>
+        <v>73.69751723895541</v>
       </c>
       <c r="L18" t="n">
-        <v>270.0862815367088</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="Q18" t="n">
         <v>201.2117187938668</v>
@@ -36121,19 +36121,19 @@
         <v>124.7280317040766</v>
       </c>
       <c r="K20" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>275.1146388003905</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>286.48436176052</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>275.1146388003878</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>284.7450133627702</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>73.69751723895541</v>
       </c>
       <c r="N21" t="n">
-        <v>75.43686563670774</v>
+        <v>286.48436176052</v>
       </c>
       <c r="O21" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="P21" t="n">
-        <v>286.4843617605213</v>
+        <v>286.48436176052</v>
       </c>
       <c r="Q21" t="n">
         <v>201.2117187938668</v>
@@ -36358,25 +36358,25 @@
         <v>124.7280317040766</v>
       </c>
       <c r="K23" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>286.4843617605213</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="M23" t="n">
-        <v>286.4843617605213</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>150.1812043287469</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>150.1812043287453</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>284.7450133627702</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>286.4843617605213</v>
+        <v>274.9092360328221</v>
       </c>
       <c r="M24" t="n">
-        <v>276.6485844305746</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="N24" t="n">
-        <v>286.4843617605213</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>286.4843617605198</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36610,13 +36610,13 @@
         <v>512.3179918329258</v>
       </c>
       <c r="P26" t="n">
-        <v>409.3866171387172</v>
+        <v>359.6316116261361</v>
       </c>
       <c r="Q26" t="n">
         <v>161.5509272888777</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>49.75500551258124</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>91.83494586052021</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>284.7450133627702</v>
+        <v>43.36508756622458</v>
       </c>
       <c r="L27" t="n">
         <v>440.6965034760981</v>
@@ -36683,7 +36683,7 @@
         <v>572.9957856680577</v>
       </c>
       <c r="N27" t="n">
-        <v>67.26489371943154</v>
+        <v>601.6914841703639</v>
       </c>
       <c r="O27" t="n">
         <v>474.1592170661946</v>
@@ -36692,7 +36692,7 @@
         <v>367.7473842227106</v>
       </c>
       <c r="Q27" t="n">
-        <v>201.2117187938668</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>124.7280317040766</v>
+        <v>225.7273632116745</v>
       </c>
       <c r="K29" t="n">
-        <v>361.5668279841281</v>
+        <v>421.5032255717926</v>
       </c>
       <c r="L29" t="n">
         <v>549.0875074307771</v>
       </c>
       <c r="M29" t="n">
-        <v>605.7955406925663</v>
+        <v>545.859143104902</v>
       </c>
       <c r="N29" t="n">
-        <v>592.4779858586626</v>
+        <v>491.4786543510647</v>
       </c>
       <c r="O29" t="n">
         <v>512.3179918329258</v>
@@ -36917,13 +36917,13 @@
         <v>440.6965034760981</v>
       </c>
       <c r="M30" t="n">
-        <v>38.56919521712522</v>
+        <v>512.7284122833197</v>
       </c>
       <c r="N30" t="n">
         <v>601.6914841703639</v>
       </c>
       <c r="O30" t="n">
-        <v>474.1592170661946</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>367.7473842227106</v>
@@ -36996,7 +36996,7 @@
         <v>243.4833456414965</v>
       </c>
       <c r="M31" t="n">
-        <v>263.2665719853749</v>
+        <v>263.2665719853741</v>
       </c>
       <c r="N31" t="n">
         <v>262.6753484487566</v>
@@ -37008,7 +37008,7 @@
         <v>197.8440937531379</v>
       </c>
       <c r="Q31" t="n">
-        <v>85.86117808586739</v>
+        <v>85.86117808586809</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>165.7909656240103</v>
+        <v>225.7273632116744</v>
       </c>
       <c r="K32" t="n">
         <v>421.5032255717926</v>
@@ -37075,10 +37075,10 @@
         <v>549.0875074307771</v>
       </c>
       <c r="M32" t="n">
-        <v>605.7955406925663</v>
+        <v>504.7962091849685</v>
       </c>
       <c r="N32" t="n">
-        <v>491.4786543510647</v>
+        <v>592.4779858586625</v>
       </c>
       <c r="O32" t="n">
         <v>512.3179918329258</v>
@@ -37087,7 +37087,7 @@
         <v>419.5680092138003</v>
       </c>
       <c r="Q32" t="n">
-        <v>262.5502587964756</v>
+        <v>202.6138612088114</v>
       </c>
       <c r="R32" t="n">
         <v>49.75500551258123</v>
@@ -37321,7 +37321,7 @@
         <v>411.318660325328</v>
       </c>
       <c r="P35" t="n">
-        <v>167.2992438628713</v>
+        <v>167.2992438628768</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37385,16 +37385,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>284.7450133627702</v>
       </c>
       <c r="L36" t="n">
-        <v>336.7329636795188</v>
+        <v>440.6965034760981</v>
       </c>
       <c r="M36" t="n">
-        <v>572.9957856680577</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>591.8494870751251</v>
+        <v>574.9250007899716</v>
       </c>
       <c r="O36" t="n">
         <v>474.1592170661946</v>
@@ -37403,7 +37403,7 @@
         <v>367.7473842227106</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>201.2117187938668</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K38" t="n">
         <v>320.5038940641947</v>
       </c>
       <c r="L38" t="n">
-        <v>448.0881759231792</v>
+        <v>10.53978308689928</v>
       </c>
       <c r="M38" t="n">
         <v>504.7962091849685</v>
@@ -37558,10 +37558,10 @@
         <v>411.318660325328</v>
       </c>
       <c r="P38" t="n">
-        <v>167.2992438628713</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>161.5509272888777</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>91.83494586052021</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>284.7450133627702</v>
       </c>
       <c r="L39" t="n">
         <v>440.6965034760981</v>
@@ -37631,16 +37631,16 @@
         <v>572.9957856680577</v>
       </c>
       <c r="N39" t="n">
-        <v>591.8494870751251</v>
+        <v>585.465205121455</v>
       </c>
       <c r="O39" t="n">
-        <v>168.9839584757481</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>367.7473842227106</v>
       </c>
       <c r="Q39" t="n">
-        <v>201.2117187938668</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>124.7280317040766</v>
       </c>
       <c r="K41" t="n">
-        <v>169.2344602208638</v>
+        <v>320.5038940641947</v>
       </c>
       <c r="L41" t="n">
-        <v>448.0881759231792</v>
+        <v>10.53978308689928</v>
       </c>
       <c r="M41" t="n">
         <v>504.7962091849685</v>
@@ -37798,7 +37798,7 @@
         <v>318.5686777062025</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>161.5509272888777</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>135.5212448856517</v>
+        <v>336.7329636795228</v>
       </c>
       <c r="M42" t="n">
         <v>572.9957856680577</v>
       </c>
       <c r="N42" t="n">
-        <v>591.8494870751251</v>
+        <v>591.8494870751265</v>
       </c>
       <c r="O42" t="n">
         <v>474.1592170661946</v>
@@ -37877,7 +37877,7 @@
         <v>367.7473842227106</v>
       </c>
       <c r="Q42" t="n">
-        <v>201.2117187938668</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>320.5038940641947</v>
+        <v>169.2344602208693</v>
       </c>
       <c r="L44" t="n">
         <v>448.0881759231792</v>
@@ -38032,7 +38032,7 @@
         <v>411.318660325328</v>
       </c>
       <c r="P44" t="n">
-        <v>167.2992438628713</v>
+        <v>318.5686777062025</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38105,13 +38105,13 @@
         <v>572.9957856680577</v>
       </c>
       <c r="N45" t="n">
-        <v>1.929215121908507</v>
+        <v>591.8494870751265</v>
       </c>
       <c r="O45" t="n">
-        <v>474.1592170661946</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>367.7473842227106</v>
+        <v>251.9863293356924</v>
       </c>
       <c r="Q45" t="n">
         <v>201.2117187938668</v>
